--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="80">
   <si>
     <t>STRIKE</t>
   </si>
@@ -160,88 +160,52 @@
     <t>ITUBM290</t>
   </si>
   <si>
-    <t>PETRM29</t>
-  </si>
-  <si>
     <t>ITUBM291</t>
   </si>
   <si>
     <t>ITUBM293</t>
   </si>
   <si>
-    <t>PETRM59</t>
-  </si>
-  <si>
     <t>ITUBM297</t>
   </si>
   <si>
     <t>ITUBM300</t>
   </si>
   <si>
-    <t>PETRM300</t>
-  </si>
-  <si>
     <t>ITUBM301</t>
   </si>
   <si>
     <t>ITUBM303</t>
   </si>
   <si>
-    <t>PETRM304</t>
-  </si>
-  <si>
-    <t>PETRM60</t>
-  </si>
-  <si>
     <t>ITUBM307</t>
   </si>
   <si>
-    <t>PETRM299</t>
-  </si>
-  <si>
     <t>ITUBM308</t>
   </si>
   <si>
-    <t>PETRM31</t>
-  </si>
-  <si>
     <t>ITUBM311</t>
   </si>
   <si>
     <t>ITUBM313</t>
   </si>
   <si>
-    <t>PETRM1</t>
-  </si>
-  <si>
     <t>ITUBM316</t>
   </si>
   <si>
-    <t>PETRM316</t>
-  </si>
-  <si>
     <t>ITUBM329</t>
   </si>
   <si>
-    <t>PETRM32</t>
-  </si>
-  <si>
     <t>ITUBM321</t>
   </si>
   <si>
     <t>ITUBM323</t>
   </si>
   <si>
-    <t>PETRM2</t>
-  </si>
-  <si>
     <t>ITUBM336</t>
   </si>
   <si>
     <t>ITUBM328</t>
-  </si>
-  <si>
-    <t>PETRM329</t>
   </si>
   <si>
     <t>ITUBM331</t>
@@ -647,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,16 +654,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <v>0.0013</v>
+        <v>0.0007</v>
       </c>
       <c r="G2">
         <v>-0.5</v>
@@ -708,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -719,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0.03</v>
@@ -734,7 +698,7 @@
         <v>-0.38</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -748,10 +712,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -763,7 +727,7 @@
         <v>-0.36</v>
       </c>
       <c r="H4">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -777,10 +741,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>0.12</v>
@@ -792,7 +756,7 @@
         <v>-0.34</v>
       </c>
       <c r="H5">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -806,10 +770,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>0.02</v>
@@ -821,7 +785,7 @@
         <v>-0.34</v>
       </c>
       <c r="H6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -835,22 +799,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E7">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
-        <v>0.0029</v>
+        <v>0.0015</v>
       </c>
       <c r="G7">
         <v>-0.33</v>
       </c>
       <c r="H7">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -864,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>0.07000000000000001</v>
@@ -879,7 +843,7 @@
         <v>-0.32</v>
       </c>
       <c r="H8">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -893,10 +857,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>0.06</v>
@@ -908,7 +872,7 @@
         <v>-0.31</v>
       </c>
       <c r="H9">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -922,10 +886,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0.07000000000000001</v>
@@ -937,7 +901,7 @@
         <v>-0.3</v>
       </c>
       <c r="H10">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -951,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -966,7 +930,7 @@
         <v>-0.29</v>
       </c>
       <c r="H11">
-        <v>3.51</v>
+        <v>3.19</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -980,10 +944,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -995,10 +959,10 @@
         <v>-0.28</v>
       </c>
       <c r="H12">
-        <v>4.27</v>
+        <v>3.89</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1009,25 +973,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F13">
-        <v>0.0023</v>
+        <v>0.0027</v>
       </c>
       <c r="G13">
         <v>-0.27</v>
       </c>
       <c r="H13">
-        <v>5.14</v>
+        <v>4.7</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1038,25 +1002,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E14">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F14">
-        <v>0.0045</v>
+        <v>0.0036</v>
       </c>
       <c r="G14">
         <v>-0.26</v>
       </c>
       <c r="H14">
-        <v>6.14</v>
+        <v>5.64</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1067,25 +1031,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F15">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="G15">
         <v>-0.25</v>
       </c>
       <c r="H15">
-        <v>7.27</v>
+        <v>6.69</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1096,10 +1060,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0.14</v>
@@ -1111,7 +1075,7 @@
         <v>-0.24</v>
       </c>
       <c r="H16">
-        <v>8.539999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1125,10 +1089,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0.1</v>
@@ -1140,7 +1104,7 @@
         <v>-0.24</v>
       </c>
       <c r="H17">
-        <v>9.949999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1154,10 +1118,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0.1</v>
@@ -1169,7 +1133,7 @@
         <v>-0.23</v>
       </c>
       <c r="H18">
-        <v>11.5</v>
+        <v>10.69</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1183,10 +1147,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0.12</v>
@@ -1198,7 +1162,7 @@
         <v>-0.22</v>
       </c>
       <c r="H19">
-        <v>13.2</v>
+        <v>12.31</v>
       </c>
       <c r="I19">
         <v>4000</v>
@@ -1212,25 +1176,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F20">
-        <v>0.0054</v>
+        <v>0.005</v>
       </c>
       <c r="G20">
         <v>-0.21</v>
       </c>
       <c r="H20">
-        <v>15.05</v>
+        <v>14.07</v>
       </c>
       <c r="I20">
-        <v>5500</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1241,10 +1205,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>0.15</v>
@@ -1256,7 +1220,7 @@
         <v>-0.2</v>
       </c>
       <c r="H21">
-        <v>17.04</v>
+        <v>15.98</v>
       </c>
       <c r="I21">
         <v>10000</v>
@@ -1270,10 +1234,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>0.18</v>
@@ -1285,7 +1249,7 @@
         <v>-0.19</v>
       </c>
       <c r="H22">
-        <v>19.17</v>
+        <v>18.02</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1299,10 +1263,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>0.18</v>
@@ -1314,7 +1278,7 @@
         <v>-0.19</v>
       </c>
       <c r="H23">
-        <v>21.43</v>
+        <v>20.2</v>
       </c>
       <c r="I23">
         <v>12800</v>
@@ -1328,25 +1292,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E24">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F24">
-        <v>0.006</v>
+        <v>0.0076</v>
       </c>
       <c r="G24">
         <v>-0.18</v>
       </c>
       <c r="H24">
-        <v>23.81</v>
+        <v>22.5</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1357,10 +1321,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0.21</v>
@@ -1372,10 +1336,10 @@
         <v>-0.17</v>
       </c>
       <c r="H25">
-        <v>26.3</v>
+        <v>24.93</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1386,10 +1350,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>0.22</v>
@@ -1401,7 +1365,7 @@
         <v>-0.16</v>
       </c>
       <c r="H26">
-        <v>28.9</v>
+        <v>27.45</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1415,25 +1379,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F27">
-        <v>0.0094</v>
+        <v>0.0098</v>
       </c>
       <c r="G27">
         <v>-0.15</v>
       </c>
       <c r="H27">
-        <v>31.58</v>
+        <v>30.07</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1444,25 +1408,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E28">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F28">
-        <v>0.009299999999999999</v>
+        <v>0.0104</v>
       </c>
       <c r="G28">
         <v>-0.15</v>
       </c>
       <c r="H28">
-        <v>34.34</v>
+        <v>32.78</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1473,25 +1437,25 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.0119</v>
+        <v>0.0115</v>
       </c>
       <c r="G29">
         <v>-0.14</v>
       </c>
       <c r="H29">
-        <v>37.15</v>
+        <v>35.54</v>
       </c>
       <c r="I29">
-        <v>30900</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1502,25 +1466,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="F30">
-        <v>0.0118</v>
+        <v>0.0125</v>
       </c>
       <c r="G30">
         <v>-0.13</v>
       </c>
       <c r="H30">
-        <v>40.01</v>
+        <v>38.36</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1531,25 +1495,25 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E31">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="F31">
-        <v>0.0154</v>
+        <v>0.0139</v>
       </c>
       <c r="G31">
         <v>-0.12</v>
       </c>
       <c r="H31">
-        <v>42.89</v>
+        <v>41.22</v>
       </c>
       <c r="I31">
-        <v>3200</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1560,25 +1524,25 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E32">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="F32">
-        <v>0.0164</v>
+        <v>0.0153</v>
       </c>
       <c r="G32">
         <v>-0.11</v>
       </c>
       <c r="H32">
-        <v>45.78</v>
+        <v>44.09</v>
       </c>
       <c r="I32">
-        <v>31900</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1589,10 +1553,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>0.47</v>
@@ -1604,10 +1568,10 @@
         <v>-0.1</v>
       </c>
       <c r="H33">
-        <v>48.67</v>
+        <v>46.97</v>
       </c>
       <c r="I33">
-        <v>44600</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1618,25 +1582,25 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E34">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F34">
-        <v>0.019</v>
+        <v>0.0194</v>
       </c>
       <c r="G34">
         <v>-0.1</v>
       </c>
       <c r="H34">
-        <v>51.54</v>
+        <v>49.84</v>
       </c>
       <c r="I34">
-        <v>10600</v>
+        <v>8298300</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1647,25 +1611,25 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E35">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="F35">
-        <v>0.0246</v>
+        <v>0.0206</v>
       </c>
       <c r="G35">
         <v>-0.09</v>
       </c>
       <c r="H35">
-        <v>54.38</v>
+        <v>52.68</v>
       </c>
       <c r="I35">
-        <v>4000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1676,25 +1640,25 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E36">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F36">
-        <v>0.0223</v>
+        <v>0.0212</v>
       </c>
       <c r="G36">
         <v>-0.08</v>
       </c>
       <c r="H36">
-        <v>57.17</v>
+        <v>55.48</v>
       </c>
       <c r="I36">
-        <v>42700</v>
+        <v>125800</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1705,25 +1669,25 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E37">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="F37">
-        <v>0.0253</v>
+        <v>0.0235</v>
       </c>
       <c r="G37">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H37">
-        <v>59.9</v>
+        <v>58.23</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1734,10 +1698,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>0.76</v>
@@ -1749,10 +1713,10 @@
         <v>-0.06</v>
       </c>
       <c r="H38">
-        <v>62.56</v>
+        <v>60.92</v>
       </c>
       <c r="I38">
-        <v>41900</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1763,25 +1727,25 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E39">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F39">
-        <v>0.0332</v>
+        <v>0.029</v>
       </c>
       <c r="G39">
         <v>-0.05</v>
       </c>
       <c r="H39">
-        <v>65.13</v>
+        <v>63.54</v>
       </c>
       <c r="I39">
-        <v>19000</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1792,396 +1756,399 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E40">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F40">
-        <v>0.0326</v>
+        <v>0.0312</v>
       </c>
       <c r="G40">
         <v>-0.05</v>
       </c>
       <c r="H40">
-        <v>67.62</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="I40">
-        <v>21700</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E41">
-        <v>2.56</v>
+        <v>0.97</v>
       </c>
       <c r="F41">
-        <v>0.0883</v>
+        <v>0.0333</v>
       </c>
       <c r="G41">
         <v>-0.04</v>
       </c>
       <c r="H41">
-        <v>68.97</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="I41">
-        <v>319900</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>29.11</v>
+        <v>29.36</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E42">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="F42">
-        <v>0.0364</v>
+        <v>0.0392</v>
       </c>
       <c r="G42">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H42">
-        <v>70.01000000000001</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="I42">
-        <v>6600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>29.36</v>
+        <v>29.61</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E43">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="F43">
-        <v>0.0395</v>
+        <v>0.0399</v>
       </c>
       <c r="G43">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="H43">
-        <v>72.3</v>
+        <v>73.09</v>
       </c>
       <c r="I43">
-        <v>1300</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>29.5</v>
+        <v>29.86</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E44">
-        <v>3.07</v>
+        <v>1.26</v>
       </c>
       <c r="F44">
-        <v>0.1041</v>
+        <v>0.0422</v>
       </c>
       <c r="G44">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H44">
-        <v>73.54000000000001</v>
+        <v>75.22</v>
       </c>
       <c r="I44">
-        <v>66100</v>
+        <v>109900</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>29.61</v>
+        <v>30.11</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E45">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="F45">
-        <v>0.0402</v>
+        <v>0.0458</v>
       </c>
       <c r="G45">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="H45">
-        <v>74.48</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>29.86</v>
+        <v>30.36</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E46">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="F46">
-        <v>0.0469</v>
+        <v>0.0487</v>
       </c>
       <c r="G46">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>76.55</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="I46">
-        <v>106700</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>30</v>
+        <v>30.61</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E47">
-        <v>3.28</v>
+        <v>1.6</v>
       </c>
       <c r="F47">
-        <v>0.1093</v>
+        <v>0.0523</v>
       </c>
       <c r="G47">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H47">
-        <v>77.66</v>
+        <v>80.94</v>
       </c>
       <c r="I47">
-        <v>60800</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>30.11</v>
+        <v>30.86</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E48">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="F48">
-        <v>0.0482</v>
+        <v>0.0567</v>
       </c>
       <c r="G48">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
       <c r="H48">
-        <v>78.51000000000001</v>
+        <v>82.63</v>
       </c>
       <c r="I48">
-        <v>19600</v>
+        <v>236500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>30.36</v>
+        <v>31.11</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E49">
-        <v>1.39</v>
+        <v>1.99</v>
       </c>
       <c r="F49">
-        <v>0.0458</v>
+        <v>0.064</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H49">
-        <v>80.34999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>30.5</v>
+        <v>31.36</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E50">
-        <v>3.66</v>
+        <v>2.1</v>
       </c>
       <c r="F50">
-        <v>0.12</v>
+        <v>0.067</v>
       </c>
       <c r="G50">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H50">
-        <v>81.34</v>
+        <v>85.67</v>
       </c>
       <c r="I50">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>30.5</v>
+        <v>31.61</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>2.22</v>
+      </c>
+      <c r="F51">
+        <v>0.0702</v>
       </c>
       <c r="G51">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H51">
-        <v>81.34</v>
-      </c>
-      <c r="I51" t="s">
-        <v>91</v>
+        <v>87.03</v>
+      </c>
+      <c r="I51">
+        <v>2800</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>30.61</v>
+        <v>31.86</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E52">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="F52">
-        <v>0.049</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H52">
-        <v>82.09</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>30.75</v>
+        <v>32.11</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E53">
-        <v>4.24</v>
+        <v>2.41</v>
       </c>
       <c r="F53">
-        <v>0.1379</v>
+        <v>0.0751</v>
       </c>
       <c r="G53">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H53">
-        <v>83.01000000000001</v>
+        <v>89.45</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2189,115 +2156,115 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>30.86</v>
+        <v>32.36</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E54">
-        <v>1.92</v>
+        <v>2.88</v>
       </c>
       <c r="F54">
-        <v>0.0622</v>
+        <v>0.089</v>
       </c>
       <c r="G54">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H54">
-        <v>83.7</v>
+        <v>90.52</v>
       </c>
       <c r="I54">
-        <v>170200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>31</v>
+        <v>32.61</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E55">
-        <v>4.05</v>
+        <v>7.71</v>
       </c>
       <c r="F55">
-        <v>0.1306</v>
+        <v>0.2364</v>
       </c>
       <c r="G55">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="H55">
-        <v>84.56</v>
+        <v>91.5</v>
       </c>
       <c r="I55">
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>31.11</v>
+        <v>32.86</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E56">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="F56">
-        <v>0.0675</v>
+        <v>0.1035</v>
       </c>
       <c r="G56">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H56">
-        <v>85.20999999999999</v>
+        <v>92.39</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>31.36</v>
+        <v>33.11</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E57">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="H57">
-        <v>86.62</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2305,28 +2272,28 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>31.5</v>
+        <v>33.61</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E58">
-        <v>8.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.2686</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H58">
-        <v>87.34999999999999</v>
+        <v>94.62</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2334,28 +2301,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>31.61</v>
+        <v>34.11</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E59">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.0804</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="H59">
-        <v>87.91</v>
+        <v>95.77</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2363,144 +2330,144 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>31.75</v>
+        <v>34.36</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E60">
-        <v>4.68</v>
+        <v>5.9</v>
       </c>
       <c r="F60">
-        <v>0.1474</v>
+        <v>0.1717</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H60">
-        <v>88.59999999999999</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="I60">
-        <v>112300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>31.86</v>
+        <v>34.86</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E61">
-        <v>2.6</v>
+        <v>5.07</v>
       </c>
       <c r="F61">
-        <v>0.08160000000000001</v>
+        <v>0.1454</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="H61">
-        <v>89.11</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I61">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>32</v>
+        <v>35.11</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.1562</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="H62">
-        <v>89.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="I62">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>32.11</v>
+        <v>35.61</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E63">
-        <v>2.41</v>
+        <v>5.3</v>
       </c>
       <c r="F63">
-        <v>0.0751</v>
+        <v>0.1488</v>
       </c>
       <c r="G63">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="H63">
-        <v>90.20999999999999</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>32.36</v>
+        <v>36.86</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E64">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.0881</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="H64">
-        <v>91.22</v>
+        <v>99.02</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2508,54 +2475,57 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>32.5</v>
+        <v>37.36</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H65">
-        <v>91.75</v>
-      </c>
-      <c r="I65" t="s">
-        <v>91</v>
+        <v>99.26000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>32.61</v>
+        <v>37.86</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E66">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.2364</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="H66">
-        <v>92.14</v>
+        <v>99.45</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2563,28 +2533,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>32.86</v>
+        <v>38.36</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E67">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.1035</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="H67">
-        <v>92.98</v>
+        <v>99.59</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2592,405 +2562,57 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>33</v>
+        <v>38.86</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E68">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.1773</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="H68">
-        <v>93.42</v>
+        <v>99.7</v>
       </c>
       <c r="I68">
-        <v>34000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>33.11</v>
+        <v>43.11</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
       </c>
       <c r="G69">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="H69">
-        <v>93.75</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>33.61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0.11</v>
-      </c>
-      <c r="H70">
-        <v>95.06999999999999</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>34.11</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0.13</v>
-      </c>
-      <c r="H71">
-        <v>96.14</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
-        <v>34.36</v>
-      </c>
-      <c r="B72" t="s">
+        <v>99.98</v>
+      </c>
+      <c r="I69" t="s">
         <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72">
-        <v>5.9</v>
-      </c>
-      <c r="F72">
-        <v>0.1717</v>
-      </c>
-      <c r="G72">
-        <v>0.14</v>
-      </c>
-      <c r="H72">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73">
-        <v>34.86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73">
-        <v>5.07</v>
-      </c>
-      <c r="F73">
-        <v>0.1454</v>
-      </c>
-      <c r="G73">
-        <v>0.15</v>
-      </c>
-      <c r="H73">
-        <v>97.37</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74">
-        <v>35.11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0.16</v>
-      </c>
-      <c r="H74">
-        <v>97.69</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75">
-        <v>35.61</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75">
-        <v>6.25</v>
-      </c>
-      <c r="F75">
-        <v>0.1755</v>
-      </c>
-      <c r="G75">
-        <v>0.18</v>
-      </c>
-      <c r="H75">
-        <v>98.23</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76">
-        <v>36.86</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0.22</v>
-      </c>
-      <c r="H76">
-        <v>99.12</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
-        <v>37.36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0.23</v>
-      </c>
-      <c r="H77">
-        <v>99.34</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
-        <v>37.86</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0.25</v>
-      </c>
-      <c r="H78">
-        <v>99.51000000000001</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79">
-        <v>38.36</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0.27</v>
-      </c>
-      <c r="H79">
-        <v>99.64</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
-        <v>38.86</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0.28</v>
-      </c>
-      <c r="H80">
-        <v>99.73999999999999</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>43.11</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81">
-        <v>0.42</v>
-      </c>
-      <c r="H81">
-        <v>99.98</v>
-      </c>
-      <c r="I81" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>STRIKE</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Aguardar</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -698,7 +695,7 @@
         <v>-0.38</v>
       </c>
       <c r="H3">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -727,7 +724,7 @@
         <v>-0.36</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -756,7 +753,7 @@
         <v>-0.34</v>
       </c>
       <c r="H5">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -785,7 +782,7 @@
         <v>-0.34</v>
       </c>
       <c r="H6">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -814,7 +811,7 @@
         <v>-0.33</v>
       </c>
       <c r="H7">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -843,7 +840,7 @@
         <v>-0.32</v>
       </c>
       <c r="H8">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -872,7 +869,7 @@
         <v>-0.31</v>
       </c>
       <c r="H9">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -901,7 +898,7 @@
         <v>-0.3</v>
       </c>
       <c r="H10">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -930,7 +927,7 @@
         <v>-0.29</v>
       </c>
       <c r="H11">
-        <v>3.19</v>
+        <v>2.88</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -959,7 +956,7 @@
         <v>-0.28</v>
       </c>
       <c r="H12">
-        <v>3.89</v>
+        <v>3.55</v>
       </c>
       <c r="I12">
         <v>1100</v>
@@ -988,7 +985,7 @@
         <v>-0.27</v>
       </c>
       <c r="H13">
-        <v>4.7</v>
+        <v>4.32</v>
       </c>
       <c r="I13">
         <v>60000</v>
@@ -1017,7 +1014,7 @@
         <v>-0.26</v>
       </c>
       <c r="H14">
-        <v>5.64</v>
+        <v>5.21</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -1046,7 +1043,7 @@
         <v>-0.25</v>
       </c>
       <c r="H15">
-        <v>6.69</v>
+        <v>6.23</v>
       </c>
       <c r="I15">
         <v>400</v>
@@ -1075,7 +1072,7 @@
         <v>-0.24</v>
       </c>
       <c r="H16">
-        <v>7.89</v>
+        <v>7.39</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1104,7 +1101,7 @@
         <v>-0.24</v>
       </c>
       <c r="H17">
-        <v>9.220000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1133,7 +1130,7 @@
         <v>-0.23</v>
       </c>
       <c r="H18">
-        <v>10.69</v>
+        <v>10.14</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1162,7 +1159,7 @@
         <v>-0.22</v>
       </c>
       <c r="H19">
-        <v>12.31</v>
+        <v>11.73</v>
       </c>
       <c r="I19">
         <v>4000</v>
@@ -1191,7 +1188,7 @@
         <v>-0.21</v>
       </c>
       <c r="H20">
-        <v>14.07</v>
+        <v>13.48</v>
       </c>
       <c r="I20">
         <v>5700</v>
@@ -1220,7 +1217,7 @@
         <v>-0.2</v>
       </c>
       <c r="H21">
-        <v>15.98</v>
+        <v>15.38</v>
       </c>
       <c r="I21">
         <v>10000</v>
@@ -1249,7 +1246,7 @@
         <v>-0.19</v>
       </c>
       <c r="H22">
-        <v>18.02</v>
+        <v>17.42</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1278,7 +1275,7 @@
         <v>-0.19</v>
       </c>
       <c r="H23">
-        <v>20.2</v>
+        <v>19.61</v>
       </c>
       <c r="I23">
         <v>12800</v>
@@ -1307,7 +1304,7 @@
         <v>-0.18</v>
       </c>
       <c r="H24">
-        <v>22.5</v>
+        <v>21.93</v>
       </c>
       <c r="I24">
         <v>200</v>
@@ -1336,7 +1333,7 @@
         <v>-0.17</v>
       </c>
       <c r="H25">
-        <v>24.93</v>
+        <v>24.37</v>
       </c>
       <c r="I25">
         <v>1100</v>
@@ -1365,7 +1362,7 @@
         <v>-0.16</v>
       </c>
       <c r="H26">
-        <v>27.45</v>
+        <v>26.93</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1394,7 +1391,7 @@
         <v>-0.15</v>
       </c>
       <c r="H27">
-        <v>30.07</v>
+        <v>29.59</v>
       </c>
       <c r="I27">
         <v>4600</v>
@@ -1423,7 +1420,7 @@
         <v>-0.15</v>
       </c>
       <c r="H28">
-        <v>32.78</v>
+        <v>32.33</v>
       </c>
       <c r="I28">
         <v>5000</v>
@@ -1452,7 +1449,7 @@
         <v>-0.14</v>
       </c>
       <c r="H29">
-        <v>35.54</v>
+        <v>35.15</v>
       </c>
       <c r="I29">
         <v>48500</v>
@@ -1481,7 +1478,7 @@
         <v>-0.13</v>
       </c>
       <c r="H30">
-        <v>38.36</v>
+        <v>38.03</v>
       </c>
       <c r="I30">
         <v>400</v>
@@ -1510,7 +1507,7 @@
         <v>-0.12</v>
       </c>
       <c r="H31">
-        <v>41.22</v>
+        <v>40.94</v>
       </c>
       <c r="I31">
         <v>60200</v>
@@ -1539,7 +1536,7 @@
         <v>-0.11</v>
       </c>
       <c r="H32">
-        <v>44.09</v>
+        <v>43.88</v>
       </c>
       <c r="I32">
         <v>81000</v>
@@ -1568,7 +1565,7 @@
         <v>-0.1</v>
       </c>
       <c r="H33">
-        <v>46.97</v>
+        <v>46.82</v>
       </c>
       <c r="I33">
         <v>56200</v>
@@ -1597,7 +1594,7 @@
         <v>-0.1</v>
       </c>
       <c r="H34">
-        <v>49.84</v>
+        <v>49.75</v>
       </c>
       <c r="I34">
         <v>8298300</v>
@@ -1626,7 +1623,7 @@
         <v>-0.09</v>
       </c>
       <c r="H35">
-        <v>52.68</v>
+        <v>52.66</v>
       </c>
       <c r="I35">
         <v>4100</v>
@@ -1655,7 +1652,7 @@
         <v>-0.08</v>
       </c>
       <c r="H36">
-        <v>55.48</v>
+        <v>55.53</v>
       </c>
       <c r="I36">
         <v>125800</v>
@@ -1684,7 +1681,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H37">
-        <v>58.23</v>
+        <v>58.34</v>
       </c>
       <c r="I37">
         <v>33000</v>
@@ -1713,7 +1710,7 @@
         <v>-0.06</v>
       </c>
       <c r="H38">
-        <v>60.92</v>
+        <v>61.09</v>
       </c>
       <c r="I38">
         <v>48500</v>
@@ -1742,7 +1739,7 @@
         <v>-0.05</v>
       </c>
       <c r="H39">
-        <v>63.54</v>
+        <v>63.76</v>
       </c>
       <c r="I39">
         <v>19100</v>
@@ -1771,7 +1768,7 @@
         <v>-0.05</v>
       </c>
       <c r="H40">
-        <v>66.06999999999999</v>
+        <v>66.34</v>
       </c>
       <c r="I40">
         <v>21900</v>
@@ -1800,7 +1797,7 @@
         <v>-0.04</v>
       </c>
       <c r="H41">
-        <v>68.51000000000001</v>
+        <v>68.83</v>
       </c>
       <c r="I41">
         <v>7700</v>
@@ -1829,7 +1826,7 @@
         <v>-0.03</v>
       </c>
       <c r="H42">
-        <v>70.84999999999999</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="I42">
         <v>4000</v>
@@ -1858,7 +1855,7 @@
         <v>-0.02</v>
       </c>
       <c r="H43">
-        <v>73.09</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="I43">
         <v>32500</v>
@@ -1887,7 +1884,7 @@
         <v>-0.01</v>
       </c>
       <c r="H44">
-        <v>75.22</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="I44">
         <v>109900</v>
@@ -1916,7 +1913,7 @@
         <v>-0</v>
       </c>
       <c r="H45">
-        <v>77.23999999999999</v>
+        <v>77.69</v>
       </c>
       <c r="I45">
         <v>48100</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>79.15000000000001</v>
+        <v>79.62</v>
       </c>
       <c r="I46">
         <v>21500</v>
@@ -1974,7 +1971,7 @@
         <v>0.01</v>
       </c>
       <c r="H47">
-        <v>80.94</v>
+        <v>81.43000000000001</v>
       </c>
       <c r="I47">
         <v>30200</v>
@@ -2003,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>82.63</v>
+        <v>83.13</v>
       </c>
       <c r="I48">
         <v>236500</v>
@@ -2032,7 +2029,7 @@
         <v>0.03</v>
       </c>
       <c r="H49">
-        <v>84.2</v>
+        <v>84.7</v>
       </c>
       <c r="I49">
         <v>1200</v>
@@ -2061,7 +2058,7 @@
         <v>0.04</v>
       </c>
       <c r="H50">
-        <v>85.67</v>
+        <v>86.17</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2090,7 +2087,7 @@
         <v>0.04</v>
       </c>
       <c r="H51">
-        <v>87.03</v>
+        <v>87.53</v>
       </c>
       <c r="I51">
         <v>2800</v>
@@ -2119,7 +2116,7 @@
         <v>0.05</v>
       </c>
       <c r="H52">
-        <v>88.29000000000001</v>
+        <v>88.78</v>
       </c>
       <c r="I52">
         <v>3000</v>
@@ -2148,7 +2145,7 @@
         <v>0.06</v>
       </c>
       <c r="H53">
-        <v>89.45</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2177,7 +2174,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H54">
-        <v>90.52</v>
+        <v>90.98</v>
       </c>
       <c r="I54">
         <v>200</v>
@@ -2206,7 +2203,7 @@
         <v>0.08</v>
       </c>
       <c r="H55">
-        <v>91.5</v>
+        <v>91.95</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2235,7 +2232,7 @@
         <v>0.09</v>
       </c>
       <c r="H56">
-        <v>92.39</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2264,7 +2261,7 @@
         <v>0.09</v>
       </c>
       <c r="H57">
-        <v>93.20999999999999</v>
+        <v>93.62</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2293,7 +2290,7 @@
         <v>0.11</v>
       </c>
       <c r="H58">
-        <v>94.62</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2322,7 +2319,7 @@
         <v>0.13</v>
       </c>
       <c r="H59">
-        <v>95.77</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2351,7 +2348,7 @@
         <v>0.14</v>
       </c>
       <c r="H60">
-        <v>96.26000000000001</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2380,7 +2377,7 @@
         <v>0.15</v>
       </c>
       <c r="H61">
-        <v>97.09999999999999</v>
+        <v>97.36</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2409,7 +2406,7 @@
         <v>0.16</v>
       </c>
       <c r="H62">
-        <v>97.45</v>
+        <v>97.69</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2438,7 +2435,7 @@
         <v>0.18</v>
       </c>
       <c r="H63">
-        <v>98.04000000000001</v>
+        <v>98.25</v>
       </c>
       <c r="I63">
         <v>5000</v>
@@ -2467,7 +2464,7 @@
         <v>0.22</v>
       </c>
       <c r="H64">
-        <v>99.02</v>
+        <v>99.14</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2496,7 +2493,7 @@
         <v>0.23</v>
       </c>
       <c r="H65">
-        <v>99.26000000000001</v>
+        <v>99.36</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2525,7 +2522,7 @@
         <v>0.25</v>
       </c>
       <c r="H66">
-        <v>99.45</v>
+        <v>99.53</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2554,7 +2551,7 @@
         <v>0.27</v>
       </c>
       <c r="H67">
-        <v>99.59</v>
+        <v>99.66</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2583,7 +2580,7 @@
         <v>0.28</v>
       </c>
       <c r="H68">
-        <v>99.7</v>
+        <v>99.75</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2602,17 +2599,20 @@
       <c r="D69" t="s">
         <v>78</v>
       </c>
-      <c r="E69" t="s">
-        <v>79</v>
+      <c r="E69">
+        <v>13.73</v>
+      </c>
+      <c r="F69">
+        <v>0.3185</v>
       </c>
       <c r="G69">
         <v>0.42</v>
       </c>
       <c r="H69">
-        <v>99.98</v>
-      </c>
-      <c r="I69" t="s">
-        <v>79</v>
+        <v>99.98999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -695,7 +695,7 @@
         <v>-0.38</v>
       </c>
       <c r="H3">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>-0.36</v>
       </c>
       <c r="H4">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>-0.34</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>-0.34</v>
       </c>
       <c r="H6">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>-0.33</v>
       </c>
       <c r="H7">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>-0.32</v>
       </c>
       <c r="H8">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>-0.31</v>
       </c>
       <c r="H9">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>-0.3</v>
       </c>
       <c r="H10">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.29</v>
       </c>
       <c r="H11">
-        <v>2.88</v>
+        <v>2.73</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>-0.28</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="I12">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -985,10 +985,10 @@
         <v>-0.27</v>
       </c>
       <c r="H13">
-        <v>4.32</v>
+        <v>4.13</v>
       </c>
       <c r="I13">
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1014,10 +1014,10 @@
         <v>-0.26</v>
       </c>
       <c r="H14">
-        <v>5.21</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1043,10 +1043,10 @@
         <v>-0.25</v>
       </c>
       <c r="H15">
-        <v>6.23</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1072,7 +1072,7 @@
         <v>-0.24</v>
       </c>
       <c r="H16">
-        <v>7.39</v>
+        <v>7.14</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>-0.24</v>
       </c>
       <c r="H17">
-        <v>8.69</v>
+        <v>8.42</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>-0.23</v>
       </c>
       <c r="H18">
-        <v>10.14</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>-0.22</v>
       </c>
       <c r="H19">
-        <v>11.73</v>
+        <v>11.44</v>
       </c>
       <c r="I19">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1188,10 +1188,10 @@
         <v>-0.21</v>
       </c>
       <c r="H20">
-        <v>13.48</v>
+        <v>13.18</v>
       </c>
       <c r="I20">
-        <v>5700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1217,10 +1217,10 @@
         <v>-0.2</v>
       </c>
       <c r="H21">
-        <v>15.38</v>
+        <v>15.07</v>
       </c>
       <c r="I21">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1246,7 +1246,7 @@
         <v>-0.19</v>
       </c>
       <c r="H22">
-        <v>17.42</v>
+        <v>17.11</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>-0.19</v>
       </c>
       <c r="H23">
-        <v>19.61</v>
+        <v>19.3</v>
       </c>
       <c r="I23">
-        <v>12800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1304,10 +1304,10 @@
         <v>-0.18</v>
       </c>
       <c r="H24">
-        <v>21.93</v>
+        <v>21.63</v>
       </c>
       <c r="I24">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1333,10 +1333,10 @@
         <v>-0.17</v>
       </c>
       <c r="H25">
-        <v>24.37</v>
+        <v>24.08</v>
       </c>
       <c r="I25">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1362,7 +1362,7 @@
         <v>-0.16</v>
       </c>
       <c r="H26">
-        <v>26.93</v>
+        <v>26.66</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>-0.15</v>
       </c>
       <c r="H27">
-        <v>29.59</v>
+        <v>29.33</v>
       </c>
       <c r="I27">
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1420,10 +1420,10 @@
         <v>-0.15</v>
       </c>
       <c r="H28">
-        <v>32.33</v>
+        <v>32.1</v>
       </c>
       <c r="I28">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1449,10 +1449,10 @@
         <v>-0.14</v>
       </c>
       <c r="H29">
-        <v>35.15</v>
+        <v>34.95</v>
       </c>
       <c r="I29">
-        <v>48500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1478,10 +1478,10 @@
         <v>-0.13</v>
       </c>
       <c r="H30">
-        <v>38.03</v>
+        <v>37.85</v>
       </c>
       <c r="I30">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1507,10 +1507,10 @@
         <v>-0.12</v>
       </c>
       <c r="H31">
-        <v>40.94</v>
+        <v>40.79</v>
       </c>
       <c r="I31">
-        <v>60200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1536,10 +1536,10 @@
         <v>-0.11</v>
       </c>
       <c r="H32">
-        <v>43.88</v>
+        <v>43.76</v>
       </c>
       <c r="I32">
-        <v>81000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1565,10 +1565,10 @@
         <v>-0.1</v>
       </c>
       <c r="H33">
-        <v>46.82</v>
+        <v>46.74</v>
       </c>
       <c r="I33">
-        <v>56200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1594,10 +1594,10 @@
         <v>-0.1</v>
       </c>
       <c r="H34">
-        <v>49.75</v>
+        <v>49.71</v>
       </c>
       <c r="I34">
-        <v>8298300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1623,10 +1623,10 @@
         <v>-0.09</v>
       </c>
       <c r="H35">
-        <v>52.66</v>
+        <v>52.65</v>
       </c>
       <c r="I35">
-        <v>4100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1652,10 +1652,10 @@
         <v>-0.08</v>
       </c>
       <c r="H36">
-        <v>55.53</v>
+        <v>55.55</v>
       </c>
       <c r="I36">
-        <v>125800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1681,10 +1681,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H37">
-        <v>58.34</v>
+        <v>58.4</v>
       </c>
       <c r="I37">
-        <v>33000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1710,10 +1710,10 @@
         <v>-0.06</v>
       </c>
       <c r="H38">
-        <v>61.09</v>
+        <v>61.18</v>
       </c>
       <c r="I38">
-        <v>48500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1739,10 +1739,10 @@
         <v>-0.05</v>
       </c>
       <c r="H39">
-        <v>63.76</v>
+        <v>63.88</v>
       </c>
       <c r="I39">
-        <v>19100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1768,10 +1768,10 @@
         <v>-0.05</v>
       </c>
       <c r="H40">
-        <v>66.34</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="I40">
-        <v>21900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1797,10 +1797,10 @@
         <v>-0.04</v>
       </c>
       <c r="H41">
-        <v>68.83</v>
+        <v>69</v>
       </c>
       <c r="I41">
-        <v>7700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1826,10 +1826,10 @@
         <v>-0.03</v>
       </c>
       <c r="H42">
-        <v>71.20999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I42">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1855,10 +1855,10 @@
         <v>-0.02</v>
       </c>
       <c r="H43">
-        <v>73.48999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="I43">
-        <v>32500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1884,10 +1884,10 @@
         <v>-0.01</v>
       </c>
       <c r="H44">
-        <v>75.65000000000001</v>
+        <v>75.87</v>
       </c>
       <c r="I44">
-        <v>109900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1913,10 +1913,10 @@
         <v>-0</v>
       </c>
       <c r="H45">
-        <v>77.69</v>
+        <v>77.93000000000001</v>
       </c>
       <c r="I45">
-        <v>48100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>79.62</v>
+        <v>79.87</v>
       </c>
       <c r="I46">
-        <v>21500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1971,10 +1971,10 @@
         <v>0.01</v>
       </c>
       <c r="H47">
-        <v>81.43000000000001</v>
+        <v>81.69</v>
       </c>
       <c r="I47">
-        <v>30200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2000,10 +2000,10 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>83.13</v>
+        <v>83.38</v>
       </c>
       <c r="I48">
-        <v>236500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2029,10 +2029,10 @@
         <v>0.03</v>
       </c>
       <c r="H49">
-        <v>84.7</v>
+        <v>84.97</v>
       </c>
       <c r="I49">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2058,7 +2058,7 @@
         <v>0.04</v>
       </c>
       <c r="H50">
-        <v>86.17</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0.04</v>
       </c>
       <c r="H51">
-        <v>87.53</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="I51">
-        <v>2800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2116,10 +2116,10 @@
         <v>0.05</v>
       </c>
       <c r="H52">
-        <v>88.78</v>
+        <v>89.03</v>
       </c>
       <c r="I52">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2145,7 +2145,7 @@
         <v>0.06</v>
       </c>
       <c r="H53">
-        <v>89.93000000000001</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H54">
-        <v>90.98</v>
+        <v>91.22</v>
       </c>
       <c r="I54">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2203,7 +2203,7 @@
         <v>0.08</v>
       </c>
       <c r="H55">
-        <v>91.95</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0.09</v>
       </c>
       <c r="H56">
-        <v>92.81999999999999</v>
+        <v>93.04000000000001</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0.09</v>
       </c>
       <c r="H57">
-        <v>93.62</v>
+        <v>93.83</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0.11</v>
       </c>
       <c r="H58">
-        <v>94.98999999999999</v>
+        <v>95.18000000000001</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0.13</v>
       </c>
       <c r="H59">
-        <v>96.09999999999999</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0.14</v>
       </c>
       <c r="H60">
-        <v>96.56999999999999</v>
+        <v>96.72</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0.15</v>
       </c>
       <c r="H61">
-        <v>97.36</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0.16</v>
       </c>
       <c r="H62">
-        <v>97.69</v>
+        <v>97.81</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0.18</v>
       </c>
       <c r="H63">
-        <v>98.25</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="I63">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2464,7 +2464,7 @@
         <v>0.22</v>
       </c>
       <c r="H64">
-        <v>99.14</v>
+        <v>99.2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0.23</v>
       </c>
       <c r="H65">
-        <v>99.36</v>
+        <v>99.41</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0.25</v>
       </c>
       <c r="H66">
-        <v>99.53</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0.27</v>
       </c>
       <c r="H67">
-        <v>99.66</v>
+        <v>99.69</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0.28</v>
       </c>
       <c r="H68">
-        <v>99.75</v>
+        <v>99.77</v>
       </c>
       <c r="I68">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -695,7 +695,7 @@
         <v>-0.38</v>
       </c>
       <c r="H3">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>-0.36</v>
       </c>
       <c r="H4">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0.006</v>
       </c>
       <c r="G5">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H5">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>78</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="G6">
         <v>-0.34</v>
       </c>
       <c r="H6">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -811,7 +811,7 @@
         <v>-0.33</v>
       </c>
       <c r="H7">
-        <v>0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>-0.32</v>
       </c>
       <c r="H8">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>-0.31</v>
       </c>
       <c r="H9">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0.0033</v>
       </c>
       <c r="G10">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="H10">
-        <v>1.74</v>
+        <v>2.46</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.29</v>
       </c>
       <c r="H11">
-        <v>2.73</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>-0.28</v>
       </c>
       <c r="H12">
-        <v>3.37</v>
+        <v>4.64</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>-0.27</v>
       </c>
       <c r="H13">
-        <v>4.13</v>
+        <v>5.61</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>0.0036</v>
       </c>
       <c r="G14">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6.73</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0.0035</v>
       </c>
       <c r="G15">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7.99</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0.0061</v>
       </c>
       <c r="G16">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H16">
-        <v>7.14</v>
+        <v>9.41</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>78</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17">
-        <v>0.0043</v>
+        <v>0.003</v>
       </c>
       <c r="G17">
         <v>-0.24</v>
       </c>
       <c r="H17">
-        <v>8.42</v>
+        <v>10.99</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1121,19 +1121,19 @@
         <v>78</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F18">
-        <v>0.0043</v>
+        <v>0.0034</v>
       </c>
       <c r="G18">
         <v>-0.23</v>
       </c>
       <c r="H18">
-        <v>9.859999999999999</v>
+        <v>12.73</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1150,19 +1150,19 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F19">
-        <v>0.0051</v>
+        <v>0.0034</v>
       </c>
       <c r="G19">
         <v>-0.22</v>
       </c>
       <c r="H19">
-        <v>11.44</v>
+        <v>14.63</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1179,19 +1179,19 @@
         <v>78</v>
       </c>
       <c r="E20">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F20">
-        <v>0.005</v>
+        <v>0.0038</v>
       </c>
       <c r="G20">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H20">
-        <v>13.18</v>
+        <v>16.69</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1208,19 +1208,19 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F21">
-        <v>0.0062</v>
+        <v>0.0058</v>
       </c>
       <c r="G21">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="H21">
-        <v>15.07</v>
+        <v>18.9</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1237,19 +1237,19 @@
         <v>78</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F22">
-        <v>0.0074</v>
+        <v>0.0049</v>
       </c>
       <c r="G22">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H22">
-        <v>17.11</v>
+        <v>21.26</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1275,7 +1275,7 @@
         <v>-0.19</v>
       </c>
       <c r="H23">
-        <v>19.3</v>
+        <v>23.76</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>78</v>
       </c>
       <c r="E24">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F24">
-        <v>0.0076</v>
+        <v>0.0052</v>
       </c>
       <c r="G24">
         <v>-0.18</v>
       </c>
       <c r="H24">
-        <v>21.63</v>
+        <v>26.39</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1324,19 +1324,19 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F25">
-        <v>0.008399999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="G25">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H25">
-        <v>24.08</v>
+        <v>29.12</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1359,13 +1359,13 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="G26">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H26">
-        <v>26.66</v>
+        <v>31.96</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F27">
-        <v>0.0098</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G27">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H27">
-        <v>29.33</v>
+        <v>34.87</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1411,19 +1411,19 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F28">
-        <v>0.0104</v>
+        <v>0.0101</v>
       </c>
       <c r="G28">
         <v>-0.15</v>
       </c>
       <c r="H28">
-        <v>32.1</v>
+        <v>37.84</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1440,19 +1440,19 @@
         <v>78</v>
       </c>
       <c r="E29">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F29">
-        <v>0.0115</v>
+        <v>0.0111</v>
       </c>
       <c r="G29">
         <v>-0.14</v>
       </c>
       <c r="H29">
-        <v>34.95</v>
+        <v>40.86</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>101500</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>78</v>
       </c>
       <c r="E30">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F30">
-        <v>0.0125</v>
+        <v>0.0121</v>
       </c>
       <c r="G30">
         <v>-0.13</v>
       </c>
       <c r="H30">
-        <v>37.85</v>
+        <v>43.91</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>116900</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>78</v>
       </c>
       <c r="E31">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F31">
-        <v>0.0139</v>
+        <v>0.0135</v>
       </c>
       <c r="G31">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H31">
-        <v>40.79</v>
+        <v>46.96</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>140800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1527,19 +1527,19 @@
         <v>78</v>
       </c>
       <c r="E32">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="F32">
-        <v>0.0153</v>
+        <v>0.0138</v>
       </c>
       <c r="G32">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="H32">
-        <v>43.76</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>156600</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1556,19 +1556,19 @@
         <v>78</v>
       </c>
       <c r="E33">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F33">
-        <v>0.0173</v>
+        <v>0.0162</v>
       </c>
       <c r="G33">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H33">
-        <v>46.74</v>
+        <v>53.02</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>149800</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1585,19 +1585,19 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="F34">
-        <v>0.0194</v>
+        <v>0.0172</v>
       </c>
       <c r="G34">
         <v>-0.1</v>
       </c>
       <c r="H34">
-        <v>49.71</v>
+        <v>55.98</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>248900</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1614,19 +1614,19 @@
         <v>78</v>
       </c>
       <c r="E35">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="F35">
-        <v>0.0206</v>
+        <v>0.0156</v>
       </c>
       <c r="G35">
         <v>-0.09</v>
       </c>
       <c r="H35">
-        <v>52.65</v>
+        <v>58.89</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>132500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1643,19 +1643,19 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F36">
-        <v>0.0212</v>
+        <v>0.0201</v>
       </c>
       <c r="G36">
         <v>-0.08</v>
       </c>
       <c r="H36">
-        <v>55.55</v>
+        <v>61.73</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>142400</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1678,13 +1678,13 @@
         <v>0.0235</v>
       </c>
       <c r="G37">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="H37">
-        <v>58.4</v>
+        <v>64.48</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>232200</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1701,19 +1701,19 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F38">
-        <v>0.0268</v>
+        <v>0.0254</v>
       </c>
       <c r="G38">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H38">
-        <v>61.18</v>
+        <v>67.13</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>177400</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F39">
-        <v>0.029</v>
+        <v>0.0276</v>
       </c>
       <c r="G39">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H39">
-        <v>63.88</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F40">
-        <v>0.0312</v>
+        <v>0.0301</v>
       </c>
       <c r="G40">
         <v>-0.05</v>
       </c>
       <c r="H40">
-        <v>66.48999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>190600</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1788,19 +1788,19 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F41">
-        <v>0.0333</v>
+        <v>0.033</v>
       </c>
       <c r="G41">
         <v>-0.04</v>
       </c>
       <c r="H41">
-        <v>69</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>78</v>
       </c>
       <c r="E42">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="F42">
-        <v>0.0392</v>
+        <v>0.0344</v>
       </c>
       <c r="G42">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H42">
-        <v>71.40000000000001</v>
+        <v>76.62</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>62200</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="F43">
-        <v>0.0399</v>
+        <v>0.0375</v>
       </c>
       <c r="G43">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H43">
-        <v>73.69</v>
+        <v>78.69</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="F44">
-        <v>0.0422</v>
+        <v>0.0415</v>
       </c>
       <c r="G44">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H44">
-        <v>75.87</v>
+        <v>80.63</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>395100</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1904,19 +1904,19 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="F45">
-        <v>0.0458</v>
+        <v>0.0442</v>
       </c>
       <c r="G45">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="H45">
-        <v>77.93000000000001</v>
+        <v>82.44</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="F46">
-        <v>0.0487</v>
+        <v>0.0425</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H46">
-        <v>79.87</v>
+        <v>84.13</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1962,19 +1962,19 @@
         <v>78</v>
       </c>
       <c r="E47">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="F47">
-        <v>0.0523</v>
+        <v>0.0441</v>
       </c>
       <c r="G47">
         <v>0.01</v>
       </c>
       <c r="H47">
-        <v>81.69</v>
+        <v>85.69</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1991,19 +1991,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="F48">
-        <v>0.0567</v>
+        <v>0.0538</v>
       </c>
       <c r="G48">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H48">
-        <v>83.38</v>
+        <v>87.14</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>761000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2020,19 +2020,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="F49">
-        <v>0.064</v>
+        <v>0.0524</v>
       </c>
       <c r="G49">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H49">
-        <v>84.97</v>
+        <v>88.47</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>189900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2049,19 +2049,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="F50">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="G50">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H50">
-        <v>86.43000000000001</v>
+        <v>89.69</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2078,19 +2078,19 @@
         <v>78</v>
       </c>
       <c r="E51">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="F51">
-        <v>0.0702</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="G51">
         <v>0.04</v>
       </c>
       <c r="H51">
-        <v>87.79000000000001</v>
+        <v>90.81</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2107,19 +2107,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>2.6</v>
+        <v>2.01</v>
       </c>
       <c r="F52">
-        <v>0.08160000000000001</v>
+        <v>0.0631</v>
       </c>
       <c r="G52">
         <v>0.05</v>
       </c>
       <c r="H52">
-        <v>89.03</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2136,19 +2136,19 @@
         <v>78</v>
       </c>
       <c r="E53">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="F53">
-        <v>0.0751</v>
+        <v>0.066</v>
       </c>
       <c r="G53">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H53">
-        <v>90.18000000000001</v>
+        <v>92.75</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2165,19 +2165,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="F54">
-        <v>0.089</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="G54">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H54">
-        <v>91.22</v>
+        <v>93.58</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2200,10 +2200,10 @@
         <v>0.2364</v>
       </c>
       <c r="G55">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>92.18000000000001</v>
+        <v>94.33</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0.1035</v>
       </c>
       <c r="G56">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H56">
-        <v>93.04000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2252,19 +2252,19 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="G57">
         <v>0.09</v>
       </c>
       <c r="H57">
-        <v>93.83</v>
+        <v>95.61</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H58">
-        <v>95.18000000000001</v>
+        <v>96.64</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H59">
-        <v>96.26000000000001</v>
+        <v>97.44</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0.1717</v>
       </c>
       <c r="G60">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H60">
-        <v>96.72</v>
+        <v>97.78</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0.15</v>
       </c>
       <c r="H61">
-        <v>97.48999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H62">
-        <v>97.81</v>
+        <v>98.56</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>0.1488</v>
       </c>
       <c r="G63">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H63">
-        <v>98.34999999999999</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H64">
-        <v>99.2</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0.23</v>
       </c>
       <c r="H65">
-        <v>99.41</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H66">
-        <v>99.56999999999999</v>
+        <v>99.75</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H67">
-        <v>99.69</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0.28</v>
       </c>
       <c r="H68">
-        <v>99.77</v>
+        <v>99.87</v>
       </c>
       <c r="I68">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -657,19 +657,19 @@
         <v>78</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
-        <v>0.0007</v>
+        <v>0.0013</v>
       </c>
       <c r="G2">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -695,7 +695,7 @@
         <v>-0.38</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0.0026</v>
       </c>
       <c r="G4">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="H4">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>-0.35</v>
       </c>
       <c r="H5">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>78</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="G6">
         <v>-0.34</v>
       </c>
       <c r="H6">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="I6">
         <v>1000</v>
@@ -802,16 +802,16 @@
         <v>78</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F7">
-        <v>0.0015</v>
+        <v>0.0029</v>
       </c>
       <c r="G7">
         <v>-0.33</v>
       </c>
       <c r="H7">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0.0034</v>
       </c>
       <c r="G8">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H8">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>0.0029</v>
       </c>
       <c r="G9">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="H9">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>-0.31</v>
       </c>
       <c r="H10">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.29</v>
       </c>
       <c r="H11">
-        <v>3.8</v>
+        <v>4.36</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0.0023</v>
       </c>
       <c r="G12">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="H12">
-        <v>4.64</v>
+        <v>5.33</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>78</v>
       </c>
       <c r="E13">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.0027</v>
+        <v>0.0023</v>
       </c>
       <c r="G13">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H13">
-        <v>5.61</v>
+        <v>6.46</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1005,16 +1005,16 @@
         <v>78</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F14">
-        <v>0.0036</v>
+        <v>0.0018</v>
       </c>
       <c r="G14">
         <v>-0.27</v>
       </c>
       <c r="H14">
-        <v>6.73</v>
+        <v>7.74</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>-0.26</v>
       </c>
       <c r="H15">
-        <v>7.99</v>
+        <v>9.19</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>-0.25</v>
       </c>
       <c r="H16">
-        <v>9.41</v>
+        <v>10.82</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>78</v>
       </c>
       <c r="E17">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
-        <v>0.003</v>
+        <v>0.0022</v>
       </c>
       <c r="G17">
         <v>-0.24</v>
       </c>
       <c r="H17">
-        <v>10.99</v>
+        <v>12.62</v>
       </c>
       <c r="I17">
-        <v>2500</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1127,13 +1127,13 @@
         <v>0.0034</v>
       </c>
       <c r="G18">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H18">
-        <v>12.73</v>
+        <v>14.6</v>
       </c>
       <c r="I18">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1150,19 +1150,19 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19">
-        <v>0.0034</v>
+        <v>0.003</v>
       </c>
       <c r="G19">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H19">
-        <v>14.63</v>
+        <v>16.75</v>
       </c>
       <c r="I19">
-        <v>2200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1179,19 +1179,19 @@
         <v>78</v>
       </c>
       <c r="E20">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20">
-        <v>0.0038</v>
+        <v>0.0029</v>
       </c>
       <c r="G20">
         <v>-0.22</v>
       </c>
       <c r="H20">
-        <v>16.69</v>
+        <v>19.07</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1208,19 +1208,19 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F21">
-        <v>0.0058</v>
+        <v>0.0033</v>
       </c>
       <c r="G21">
         <v>-0.21</v>
       </c>
       <c r="H21">
-        <v>18.9</v>
+        <v>21.55</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1237,19 +1237,19 @@
         <v>78</v>
       </c>
       <c r="E22">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F22">
-        <v>0.0049</v>
+        <v>0.0041</v>
       </c>
       <c r="G22">
         <v>-0.2</v>
       </c>
       <c r="H22">
-        <v>21.26</v>
+        <v>24.18</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1266,19 +1266,19 @@
         <v>78</v>
       </c>
       <c r="E23">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F23">
-        <v>0.0073</v>
+        <v>0.0037</v>
       </c>
       <c r="G23">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H23">
-        <v>23.76</v>
+        <v>26.94</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1301,13 +1301,13 @@
         <v>0.0052</v>
       </c>
       <c r="G24">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H24">
-        <v>26.39</v>
+        <v>29.83</v>
       </c>
       <c r="I24">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1324,19 +1324,19 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="F25">
-        <v>0.0076</v>
+        <v>0.0048</v>
       </c>
       <c r="G25">
         <v>-0.18</v>
       </c>
       <c r="H25">
-        <v>29.12</v>
+        <v>32.82</v>
       </c>
       <c r="I25">
-        <v>11000</v>
+        <v>105300</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1353,19 +1353,19 @@
         <v>78</v>
       </c>
       <c r="E26">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="F26">
-        <v>0.008699999999999999</v>
+        <v>0.0055</v>
       </c>
       <c r="G26">
         <v>-0.17</v>
       </c>
       <c r="H26">
-        <v>31.96</v>
+        <v>35.89</v>
       </c>
       <c r="I26">
-        <v>2100</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
-        <v>0.008999999999999999</v>
+        <v>0.0066</v>
       </c>
       <c r="G27">
         <v>-0.16</v>
       </c>
       <c r="H27">
-        <v>34.87</v>
+        <v>39.02</v>
       </c>
       <c r="I27">
-        <v>700</v>
+        <v>61700</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1411,19 +1411,19 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="F28">
-        <v>0.0101</v>
+        <v>0.0073</v>
       </c>
       <c r="G28">
         <v>-0.15</v>
       </c>
       <c r="H28">
-        <v>37.84</v>
+        <v>42.19</v>
       </c>
       <c r="I28">
-        <v>17600</v>
+        <v>185500</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1440,19 +1440,19 @@
         <v>78</v>
       </c>
       <c r="E29">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="F29">
-        <v>0.0111</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G29">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H29">
-        <v>40.86</v>
+        <v>45.39</v>
       </c>
       <c r="I29">
-        <v>101500</v>
+        <v>257100</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>78</v>
       </c>
       <c r="E30">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="F30">
-        <v>0.0121</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G30">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H30">
-        <v>43.91</v>
+        <v>48.58</v>
       </c>
       <c r="I30">
-        <v>116900</v>
+        <v>90900</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>78</v>
       </c>
       <c r="E31">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="F31">
-        <v>0.0135</v>
+        <v>0.0098</v>
       </c>
       <c r="G31">
         <v>-0.13</v>
       </c>
       <c r="H31">
-        <v>46.96</v>
+        <v>51.76</v>
       </c>
       <c r="I31">
-        <v>140800</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1527,19 +1527,19 @@
         <v>78</v>
       </c>
       <c r="E32">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
-        <v>0.0138</v>
+        <v>0.0112</v>
       </c>
       <c r="G32">
         <v>-0.12</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>54.89</v>
       </c>
       <c r="I32">
-        <v>156600</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1556,19 +1556,19 @@
         <v>78</v>
       </c>
       <c r="E33">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="F33">
-        <v>0.0162</v>
+        <v>0.0125</v>
       </c>
       <c r="G33">
         <v>-0.11</v>
       </c>
       <c r="H33">
-        <v>53.02</v>
+        <v>57.96</v>
       </c>
       <c r="I33">
-        <v>149800</v>
+        <v>133600</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1585,19 +1585,19 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="F34">
-        <v>0.0172</v>
+        <v>0.0135</v>
       </c>
       <c r="G34">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H34">
-        <v>55.98</v>
+        <v>60.96</v>
       </c>
       <c r="I34">
-        <v>248900</v>
+        <v>55400</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1614,19 +1614,19 @@
         <v>78</v>
       </c>
       <c r="E35">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="F35">
-        <v>0.0156</v>
+        <v>0.0148</v>
       </c>
       <c r="G35">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H35">
-        <v>58.89</v>
+        <v>63.87</v>
       </c>
       <c r="I35">
-        <v>132500</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1643,19 +1643,19 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F36">
-        <v>0.0201</v>
+        <v>0.0169</v>
       </c>
       <c r="G36">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H36">
-        <v>61.73</v>
+        <v>66.67</v>
       </c>
       <c r="I36">
-        <v>142400</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="F37">
-        <v>0.0235</v>
+        <v>0.0185</v>
       </c>
       <c r="G37">
         <v>-0.08</v>
       </c>
       <c r="H37">
-        <v>64.48</v>
+        <v>69.36</v>
       </c>
       <c r="I37">
-        <v>232200</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1701,19 +1701,19 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="F38">
-        <v>0.0254</v>
+        <v>0.0201</v>
       </c>
       <c r="G38">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H38">
-        <v>67.13</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="I38">
-        <v>177400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="F39">
-        <v>0.0276</v>
+        <v>0.0213</v>
       </c>
       <c r="G39">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H39">
-        <v>69.68000000000001</v>
+        <v>74.37</v>
       </c>
       <c r="I39">
-        <v>61600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="F40">
-        <v>0.0301</v>
+        <v>0.0246</v>
       </c>
       <c r="G40">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H40">
-        <v>72.11</v>
+        <v>76.67</v>
       </c>
       <c r="I40">
-        <v>190600</v>
+        <v>128500</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1788,19 +1788,19 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F41">
-        <v>0.033</v>
+        <v>0.0268</v>
       </c>
       <c r="G41">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H41">
-        <v>74.43000000000001</v>
+        <v>78.84</v>
       </c>
       <c r="I41">
-        <v>46500</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>78</v>
       </c>
       <c r="E42">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="F42">
-        <v>0.0344</v>
+        <v>0.0296</v>
       </c>
       <c r="G42">
         <v>-0.04</v>
       </c>
       <c r="H42">
-        <v>76.62</v>
+        <v>80.86</v>
       </c>
       <c r="I42">
-        <v>62200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="F43">
-        <v>0.0375</v>
+        <v>0.0321</v>
       </c>
       <c r="G43">
         <v>-0.03</v>
       </c>
       <c r="H43">
-        <v>78.69</v>
+        <v>82.75</v>
       </c>
       <c r="I43">
-        <v>28500</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="F44">
-        <v>0.0415</v>
+        <v>0.0352</v>
       </c>
       <c r="G44">
         <v>-0.02</v>
       </c>
       <c r="H44">
-        <v>80.63</v>
+        <v>84.5</v>
       </c>
       <c r="I44">
-        <v>395100</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1904,19 +1904,19 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="F45">
-        <v>0.0442</v>
+        <v>0.0382</v>
       </c>
       <c r="G45">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H45">
-        <v>82.44</v>
+        <v>86.12</v>
       </c>
       <c r="I45">
-        <v>41800</v>
+        <v>86200</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="F46">
-        <v>0.0425</v>
+        <v>0.0415</v>
       </c>
       <c r="G46">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="H46">
-        <v>84.13</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I46">
-        <v>40800</v>
+        <v>121400</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1962,19 +1962,19 @@
         <v>78</v>
       </c>
       <c r="E47">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="F47">
-        <v>0.0441</v>
+        <v>0.0454</v>
       </c>
       <c r="G47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>85.69</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="I47">
-        <v>10700</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1991,19 +1991,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="F48">
-        <v>0.0538</v>
+        <v>0.0489</v>
       </c>
       <c r="G48">
         <v>0.01</v>
       </c>
       <c r="H48">
-        <v>87.14</v>
+        <v>90.2</v>
       </c>
       <c r="I48">
-        <v>761000</v>
+        <v>648700</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2020,19 +2020,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="F49">
-        <v>0.0524</v>
+        <v>0.0534</v>
       </c>
       <c r="G49">
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>88.47</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="I49">
-        <v>189900</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2049,19 +2049,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="F50">
-        <v>0.058</v>
+        <v>0.0593</v>
       </c>
       <c r="G50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H50">
-        <v>89.69</v>
+        <v>92.34</v>
       </c>
       <c r="I50">
-        <v>34900</v>
+        <v>140400</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2084,13 +2084,13 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="G51">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H51">
-        <v>90.81</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="I51">
-        <v>45900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2107,19 +2107,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="F52">
-        <v>0.0631</v>
+        <v>0.0672</v>
       </c>
       <c r="G52">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H52">
-        <v>91.81999999999999</v>
+        <v>94.08</v>
       </c>
       <c r="I52">
-        <v>15800</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2136,19 +2136,19 @@
         <v>78</v>
       </c>
       <c r="E53">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="F53">
-        <v>0.066</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="G53">
         <v>0.05</v>
       </c>
       <c r="H53">
-        <v>92.75</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="I53">
-        <v>600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2165,19 +2165,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="F54">
-        <v>0.06950000000000001</v>
+        <v>0.0791</v>
       </c>
       <c r="G54">
         <v>0.06</v>
       </c>
       <c r="H54">
-        <v>93.58</v>
+        <v>95.48</v>
       </c>
       <c r="I54">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2203,7 +2203,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>94.33</v>
+        <v>96.06</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0.1035</v>
       </c>
       <c r="G56">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H56">
-        <v>95.01000000000001</v>
+        <v>96.58</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2252,19 +2252,19 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="F57">
-        <v>0.08459999999999999</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="G57">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H57">
-        <v>95.61</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="I57">
-        <v>8800</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2290,7 +2290,7 @@
         <v>0.1</v>
       </c>
       <c r="H58">
-        <v>96.64</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H59">
-        <v>97.44</v>
+        <v>98.37</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2339,16 +2339,16 @@
         <v>78</v>
       </c>
       <c r="E60">
-        <v>5.9</v>
+        <v>3.83</v>
       </c>
       <c r="F60">
-        <v>0.1717</v>
+        <v>0.1115</v>
       </c>
       <c r="G60">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H60">
-        <v>97.78</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0.1454</v>
       </c>
       <c r="G61">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H61">
-        <v>98.33</v>
+        <v>98.98</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0.15</v>
       </c>
       <c r="H62">
-        <v>98.56</v>
+        <v>99.14</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2426,19 +2426,19 @@
         <v>78</v>
       </c>
       <c r="E63">
-        <v>5.3</v>
+        <v>5.11</v>
       </c>
       <c r="F63">
-        <v>0.1488</v>
+        <v>0.1435</v>
       </c>
       <c r="G63">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H63">
-        <v>98.93000000000001</v>
+        <v>99.38</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H64">
-        <v>99.51000000000001</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>78</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G65">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H65">
-        <v>99.65000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2513,16 +2513,16 @@
         <v>78</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.1823</v>
       </c>
       <c r="G66">
         <v>0.24</v>
       </c>
       <c r="H66">
-        <v>99.75</v>
+        <v>99.87</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H67">
-        <v>99.81999999999999</v>
+        <v>99.91</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="H68">
-        <v>99.87</v>
+        <v>99.94</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0.3185</v>
       </c>
       <c r="G69">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H69">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="I69">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -663,13 +663,13 @@
         <v>0.0013</v>
       </c>
       <c r="G2">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -692,10 +692,10 @@
         <v>0.0016</v>
       </c>
       <c r="G3">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="H3">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
-        <v>0.0026</v>
+        <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="H4">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -750,10 +750,10 @@
         <v>0.006</v>
       </c>
       <c r="G5">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="H5">
-        <v>0.77</v>
+        <v>0.24</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>78</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="G6">
-        <v>-0.34</v>
+        <v>-0.36</v>
       </c>
       <c r="H6">
-        <v>1.03</v>
+        <v>0.33</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -802,19 +802,19 @@
         <v>78</v>
       </c>
       <c r="E7">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F7">
-        <v>0.0029</v>
+        <v>0.001</v>
       </c>
       <c r="G7">
-        <v>-0.33</v>
+        <v>-0.36</v>
       </c>
       <c r="H7">
-        <v>1.35</v>
+        <v>0.45</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -831,19 +831,19 @@
         <v>78</v>
       </c>
       <c r="E8">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
-        <v>0.0034</v>
+        <v>0.0005</v>
       </c>
       <c r="G8">
-        <v>-0.33</v>
+        <v>-0.35</v>
       </c>
       <c r="H8">
-        <v>1.74</v>
+        <v>0.61</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -866,10 +866,10 @@
         <v>0.0029</v>
       </c>
       <c r="G9">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="H9">
-        <v>2.23</v>
+        <v>0.82</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0.0033</v>
       </c>
       <c r="G10">
-        <v>-0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="H10">
-        <v>2.82</v>
+        <v>1.07</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>78</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
-        <v>0.0023</v>
+        <v>0.0009</v>
       </c>
       <c r="G11">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
       <c r="H11">
-        <v>4.36</v>
+        <v>1.79</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -953,10 +953,10 @@
         <v>0.0023</v>
       </c>
       <c r="G12">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="H12">
-        <v>5.33</v>
+        <v>2.27</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>78</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>0.0023</v>
+        <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="H13">
-        <v>6.46</v>
+        <v>2.84</v>
       </c>
       <c r="I13">
-        <v>4600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>0.0018</v>
       </c>
       <c r="G14">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="H14">
-        <v>7.74</v>
+        <v>3.52</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>78</v>
       </c>
       <c r="E15">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>0.0035</v>
+        <v>0.0013</v>
       </c>
       <c r="G15">
-        <v>-0.26</v>
+        <v>-0.28</v>
       </c>
       <c r="H15">
-        <v>9.19</v>
+        <v>4.33</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1069,10 +1069,10 @@
         <v>0.0061</v>
       </c>
       <c r="G16">
-        <v>-0.25</v>
+        <v>-0.28</v>
       </c>
       <c r="H16">
-        <v>10.82</v>
+        <v>5.26</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>78</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
       <c r="G17">
-        <v>-0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="H17">
-        <v>12.62</v>
+        <v>6.34</v>
       </c>
       <c r="I17">
-        <v>25500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1127,10 +1127,10 @@
         <v>0.0034</v>
       </c>
       <c r="G18">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="H18">
-        <v>14.6</v>
+        <v>7.56</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F19">
-        <v>0.003</v>
+        <v>0.0017</v>
       </c>
       <c r="G19">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="H19">
-        <v>16.75</v>
+        <v>8.94</v>
       </c>
       <c r="I19">
-        <v>39600</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1179,19 +1179,19 @@
         <v>78</v>
       </c>
       <c r="E20">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F20">
-        <v>0.0029</v>
+        <v>0.0021</v>
       </c>
       <c r="G20">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="H20">
-        <v>19.07</v>
+        <v>10.48</v>
       </c>
       <c r="I20">
-        <v>27000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1208,19 +1208,19 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>0.0033</v>
+        <v>0.0021</v>
       </c>
       <c r="G21">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="H21">
-        <v>21.55</v>
+        <v>12.19</v>
       </c>
       <c r="I21">
-        <v>9800</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1237,19 +1237,19 @@
         <v>78</v>
       </c>
       <c r="E22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F22">
-        <v>0.0041</v>
+        <v>0.0021</v>
       </c>
       <c r="G22">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="H22">
-        <v>24.18</v>
+        <v>14.06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1272,13 +1272,13 @@
         <v>0.0037</v>
       </c>
       <c r="G23">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>26.94</v>
+        <v>16.1</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1295,19 +1295,19 @@
         <v>78</v>
       </c>
       <c r="E24">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F24">
-        <v>0.0052</v>
+        <v>0.0028</v>
       </c>
       <c r="G24">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>29.83</v>
+        <v>18.29</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1324,19 +1324,19 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
-        <v>0.0048</v>
+        <v>0.0032</v>
       </c>
       <c r="G25">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>32.82</v>
+        <v>20.64</v>
       </c>
       <c r="I25">
-        <v>105300</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1353,19 +1353,19 @@
         <v>78</v>
       </c>
       <c r="E26">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="F26">
-        <v>0.0055</v>
+        <v>0.0035</v>
       </c>
       <c r="G26">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="H26">
-        <v>35.89</v>
+        <v>23.14</v>
       </c>
       <c r="I26">
-        <v>103000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
-        <v>0.0066</v>
+        <v>0.0039</v>
       </c>
       <c r="G27">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="H27">
-        <v>39.02</v>
+        <v>25.76</v>
       </c>
       <c r="I27">
-        <v>61700</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1411,19 +1411,19 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="F28">
-        <v>0.0073</v>
+        <v>0.0039</v>
       </c>
       <c r="G28">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="H28">
-        <v>42.19</v>
+        <v>28.51</v>
       </c>
       <c r="I28">
-        <v>185500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1440,19 +1440,19 @@
         <v>78</v>
       </c>
       <c r="E29">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F29">
-        <v>0.008399999999999999</v>
+        <v>0.0061</v>
       </c>
       <c r="G29">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>45.39</v>
+        <v>31.36</v>
       </c>
       <c r="I29">
-        <v>257100</v>
+        <v>33200</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>78</v>
       </c>
       <c r="E30">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="F30">
-        <v>0.008699999999999999</v>
+        <v>0.0053</v>
       </c>
       <c r="G30">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="H30">
-        <v>48.58</v>
+        <v>34.3</v>
       </c>
       <c r="I30">
-        <v>90900</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>78</v>
       </c>
       <c r="E31">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
-        <v>0.0098</v>
+        <v>0.0056</v>
       </c>
       <c r="G31">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="H31">
-        <v>51.76</v>
+        <v>37.31</v>
       </c>
       <c r="I31">
-        <v>13600</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1527,19 +1527,19 @@
         <v>78</v>
       </c>
       <c r="E32">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="F32">
-        <v>0.0112</v>
+        <v>0.0063</v>
       </c>
       <c r="G32">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="H32">
-        <v>54.89</v>
+        <v>40.36</v>
       </c>
       <c r="I32">
-        <v>7500</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1556,19 +1556,19 @@
         <v>78</v>
       </c>
       <c r="E33">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="F33">
-        <v>0.0125</v>
+        <v>0.007</v>
       </c>
       <c r="G33">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="H33">
-        <v>57.96</v>
+        <v>43.45</v>
       </c>
       <c r="I33">
-        <v>133600</v>
+        <v>63600</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1585,19 +1585,19 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="F34">
-        <v>0.0135</v>
+        <v>0.0077</v>
       </c>
       <c r="G34">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="H34">
-        <v>60.96</v>
+        <v>46.55</v>
       </c>
       <c r="I34">
-        <v>55400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1614,19 +1614,19 @@
         <v>78</v>
       </c>
       <c r="E35">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="F35">
-        <v>0.0148</v>
+        <v>0.0116</v>
       </c>
       <c r="G35">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="H35">
-        <v>63.87</v>
+        <v>49.64</v>
       </c>
       <c r="I35">
-        <v>99100</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1643,19 +1643,19 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="F36">
-        <v>0.0169</v>
+        <v>0.0101</v>
       </c>
       <c r="G36">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="H36">
-        <v>66.67</v>
+        <v>52.71</v>
       </c>
       <c r="I36">
-        <v>1900</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="F37">
-        <v>0.0185</v>
+        <v>0.011</v>
       </c>
       <c r="G37">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="H37">
-        <v>69.36</v>
+        <v>55.73</v>
       </c>
       <c r="I37">
-        <v>100000</v>
+        <v>87300</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1701,19 +1701,19 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="F38">
-        <v>0.0201</v>
+        <v>0.0123</v>
       </c>
       <c r="G38">
-        <v>-0.07000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="H38">
-        <v>71.93000000000001</v>
+        <v>58.7</v>
       </c>
       <c r="I38">
-        <v>16500</v>
+        <v>76600</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="F39">
-        <v>0.0213</v>
+        <v>0.014</v>
       </c>
       <c r="G39">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="H39">
-        <v>74.37</v>
+        <v>61.59</v>
       </c>
       <c r="I39">
-        <v>15000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="F40">
-        <v>0.0246</v>
+        <v>0.0149</v>
       </c>
       <c r="G40">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="H40">
-        <v>76.67</v>
+        <v>64.39</v>
       </c>
       <c r="I40">
-        <v>128500</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1788,19 +1788,19 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="F41">
-        <v>0.0268</v>
+        <v>0.0168</v>
       </c>
       <c r="G41">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="H41">
-        <v>78.84</v>
+        <v>67.09</v>
       </c>
       <c r="I41">
-        <v>102500</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>78</v>
       </c>
       <c r="E42">
-        <v>0.87</v>
+        <v>0.54</v>
       </c>
       <c r="F42">
-        <v>0.0296</v>
+        <v>0.0184</v>
       </c>
       <c r="G42">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H42">
-        <v>80.86</v>
+        <v>69.69</v>
       </c>
       <c r="I42">
-        <v>21200</v>
+        <v>26100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>0.95</v>
+        <v>0.58</v>
       </c>
       <c r="F43">
-        <v>0.0321</v>
+        <v>0.0196</v>
       </c>
       <c r="G43">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="H43">
-        <v>82.75</v>
+        <v>72.17</v>
       </c>
       <c r="I43">
-        <v>56900</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>1.05</v>
+        <v>0.67</v>
       </c>
       <c r="F44">
-        <v>0.0352</v>
+        <v>0.0224</v>
       </c>
       <c r="G44">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="H44">
-        <v>84.5</v>
+        <v>74.52</v>
       </c>
       <c r="I44">
-        <v>140500</v>
+        <v>1034300</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1904,19 +1904,19 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
       <c r="F45">
-        <v>0.0382</v>
+        <v>0.0246</v>
       </c>
       <c r="G45">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="H45">
-        <v>86.12</v>
+        <v>76.75</v>
       </c>
       <c r="I45">
-        <v>86200</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>1.26</v>
+        <v>0.82</v>
       </c>
       <c r="F46">
-        <v>0.0415</v>
+        <v>0.027</v>
       </c>
       <c r="G46">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="H46">
-        <v>87.59999999999999</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="I46">
-        <v>121400</v>
+        <v>119200</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1962,19 +1962,19 @@
         <v>78</v>
       </c>
       <c r="E47">
-        <v>1.39</v>
+        <v>0.96</v>
       </c>
       <c r="F47">
-        <v>0.0454</v>
+        <v>0.0314</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="H47">
-        <v>88.95999999999999</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="I47">
-        <v>230300</v>
+        <v>160200</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1990,20 +1990,17 @@
       <c r="D48" t="s">
         <v>78</v>
       </c>
-      <c r="E48">
-        <v>1.51</v>
-      </c>
       <c r="F48">
-        <v>0.0489</v>
+        <v>0.0324</v>
       </c>
       <c r="G48">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H48">
-        <v>90.2</v>
+        <v>82.66</v>
       </c>
       <c r="I48">
-        <v>648700</v>
+        <v>441100</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2020,19 +2017,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="F49">
-        <v>0.0534</v>
+        <v>0.0347</v>
       </c>
       <c r="G49">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H49">
-        <v>91.31999999999999</v>
+        <v>84.36</v>
       </c>
       <c r="I49">
-        <v>44900</v>
+        <v>230200</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2049,19 +2046,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.86</v>
+        <v>1.2</v>
       </c>
       <c r="F50">
-        <v>0.0593</v>
+        <v>0.0383</v>
       </c>
       <c r="G50">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H50">
-        <v>92.34</v>
+        <v>85.94</v>
       </c>
       <c r="I50">
-        <v>140400</v>
+        <v>231100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2078,19 +2075,19 @@
         <v>78</v>
       </c>
       <c r="E51">
-        <v>2.12</v>
+        <v>1.41</v>
       </c>
       <c r="F51">
-        <v>0.06710000000000001</v>
+        <v>0.0446</v>
       </c>
       <c r="G51">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>93.26000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2107,19 +2104,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>2.14</v>
+        <v>1.45</v>
       </c>
       <c r="F52">
-        <v>0.0672</v>
+        <v>0.0455</v>
       </c>
       <c r="G52">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H52">
-        <v>94.08</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="I52">
-        <v>24900</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2136,19 +2133,19 @@
         <v>78</v>
       </c>
       <c r="E53">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="F53">
-        <v>0.06909999999999999</v>
+        <v>0.0489</v>
       </c>
       <c r="G53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H53">
-        <v>94.81999999999999</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I53">
-        <v>5000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2165,19 +2162,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="F54">
-        <v>0.0791</v>
+        <v>0.0606</v>
       </c>
       <c r="G54">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H54">
-        <v>95.48</v>
+        <v>91.08</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2200,10 +2197,10 @@
         <v>0.2364</v>
       </c>
       <c r="G55">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H55">
-        <v>96.06</v>
+        <v>92.09</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2223,19 +2220,19 @@
         <v>78</v>
       </c>
       <c r="E56">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="F56">
-        <v>0.1035</v>
+        <v>0.0572</v>
       </c>
       <c r="G56">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H56">
-        <v>96.58</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2252,19 +2249,19 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>3.04</v>
+        <v>2.21</v>
       </c>
       <c r="F57">
-        <v>0.09180000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="G57">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H57">
-        <v>97.04000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="I57">
-        <v>10200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2287,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H58">
-        <v>97.79000000000001</v>
+        <v>95.25</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2316,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H59">
-        <v>98.37</v>
+        <v>96.37</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2339,19 +2336,19 @@
         <v>78</v>
       </c>
       <c r="E60">
-        <v>3.83</v>
+        <v>3.15</v>
       </c>
       <c r="F60">
-        <v>0.1115</v>
+        <v>0.0917</v>
       </c>
       <c r="G60">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="H60">
-        <v>98.59999999999999</v>
+        <v>96.84</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2374,10 +2371,10 @@
         <v>0.1454</v>
       </c>
       <c r="G61">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="H61">
-        <v>98.98</v>
+        <v>97.62</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2403,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="H62">
-        <v>99.14</v>
+        <v>97.94</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2426,19 +2423,19 @@
         <v>78</v>
       </c>
       <c r="E63">
-        <v>5.11</v>
+        <v>4.35</v>
       </c>
       <c r="F63">
-        <v>0.1435</v>
+        <v>0.1222</v>
       </c>
       <c r="G63">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="H63">
-        <v>99.38</v>
+        <v>98.47</v>
       </c>
       <c r="I63">
-        <v>800</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2455,19 +2452,19 @@
         <v>78</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.1465</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H64">
-        <v>99.73999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2484,19 +2481,19 @@
         <v>78</v>
       </c>
       <c r="E65">
-        <v>6.35</v>
+        <v>6.1</v>
       </c>
       <c r="F65">
-        <v>0.17</v>
+        <v>0.1633</v>
       </c>
       <c r="G65">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="H65">
-        <v>99.81999999999999</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2519,10 +2516,10 @@
         <v>0.1823</v>
       </c>
       <c r="G66">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="H66">
-        <v>99.87</v>
+        <v>99.64</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2542,19 +2539,19 @@
         <v>78</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.1825</v>
       </c>
       <c r="G67">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="H67">
-        <v>99.91</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2577,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="H68">
-        <v>99.94</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2606,10 +2603,10 @@
         <v>0.3185</v>
       </c>
       <c r="G69">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="I69">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>15.11</v>
+        <v>15.06</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -669,12 +669,12 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>18.86</v>
+        <v>18.81</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -695,7 +695,7 @@
         <v>-0.4</v>
       </c>
       <c r="H3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>19.36</v>
+        <v>19.31</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -724,15 +724,15 @@
         <v>-0.39</v>
       </c>
       <c r="H4">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I4">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>19.86</v>
+        <v>19.81</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -747,13 +747,13 @@
         <v>0.12</v>
       </c>
       <c r="F5">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
       <c r="G5">
         <v>-0.37</v>
       </c>
       <c r="H5">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>20.11</v>
+        <v>20.06</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -782,15 +782,15 @@
         <v>-0.36</v>
       </c>
       <c r="H6">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I6">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>20.36</v>
+        <v>20.31</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -811,15 +811,15 @@
         <v>-0.36</v>
       </c>
       <c r="H7">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>20.61</v>
+        <v>20.56</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -840,15 +840,15 @@
         <v>-0.35</v>
       </c>
       <c r="H8">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>20.86</v>
+        <v>20.81</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -869,7 +869,7 @@
         <v>-0.34</v>
       </c>
       <c r="H9">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>21.11</v>
+        <v>21.06</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -898,7 +898,7 @@
         <v>-0.33</v>
       </c>
       <c r="H10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>21.61</v>
+        <v>21.56</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -927,15 +927,15 @@
         <v>-0.32</v>
       </c>
       <c r="H11">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="I11">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>21.86</v>
+        <v>21.81</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -947,16 +947,16 @@
         <v>78</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.0023</v>
+        <v>0.0009</v>
       </c>
       <c r="G12">
         <v>-0.31</v>
       </c>
       <c r="H12">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>22.11</v>
+        <v>22.06</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -985,15 +985,15 @@
         <v>-0.3</v>
       </c>
       <c r="H13">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="I13">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>22.36</v>
+        <v>22.31</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1014,7 +1014,7 @@
         <v>-0.29</v>
       </c>
       <c r="H14">
-        <v>3.52</v>
+        <v>3.31</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>22.61</v>
+        <v>22.56</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1043,15 +1043,15 @@
         <v>-0.28</v>
       </c>
       <c r="H15">
-        <v>4.33</v>
+        <v>4.08</v>
       </c>
       <c r="I15">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>22.86</v>
+        <v>22.81</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1072,7 +1072,7 @@
         <v>-0.28</v>
       </c>
       <c r="H16">
-        <v>5.26</v>
+        <v>4.97</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>23.11</v>
+        <v>23.06</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1101,15 +1101,15 @@
         <v>-0.27</v>
       </c>
       <c r="H17">
-        <v>6.34</v>
+        <v>5.99</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>23.36</v>
+        <v>23.31</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1130,7 +1130,7 @@
         <v>-0.26</v>
       </c>
       <c r="H18">
-        <v>7.56</v>
+        <v>7.16</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>23.61</v>
+        <v>23.56</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1159,15 +1159,15 @@
         <v>-0.25</v>
       </c>
       <c r="H19">
-        <v>8.94</v>
+        <v>8.49</v>
       </c>
       <c r="I19">
-        <v>41500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>23.86</v>
+        <v>23.81</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -1188,15 +1188,15 @@
         <v>-0.24</v>
       </c>
       <c r="H20">
-        <v>10.48</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="I20">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>24.11</v>
+        <v>24.06</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1217,15 +1217,15 @@
         <v>-0.24</v>
       </c>
       <c r="H21">
-        <v>12.19</v>
+        <v>11.62</v>
       </c>
       <c r="I21">
-        <v>30500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>24.36</v>
+        <v>24.31</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1246,15 +1246,15 @@
         <v>-0.23</v>
       </c>
       <c r="H22">
-        <v>14.06</v>
+        <v>13.43</v>
       </c>
       <c r="I22">
-        <v>3200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>24.61</v>
+        <v>24.56</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1266,16 +1266,16 @@
         <v>78</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
-        <v>0.0037</v>
+        <v>0.002</v>
       </c>
       <c r="G23">
         <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>24.86</v>
+        <v>24.81</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1304,15 +1304,15 @@
         <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>18.29</v>
+        <v>17.54</v>
       </c>
       <c r="I24">
-        <v>17000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>25.11</v>
+        <v>25.06</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1333,15 +1333,15 @@
         <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>20.64</v>
+        <v>19.83</v>
       </c>
       <c r="I25">
-        <v>9300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>25.36</v>
+        <v>25.31</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1356,21 +1356,21 @@
         <v>0.09</v>
       </c>
       <c r="F26">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="G26">
         <v>-0.2</v>
       </c>
       <c r="H26">
-        <v>23.14</v>
+        <v>22.26</v>
       </c>
       <c r="I26">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>25.61</v>
+        <v>25.56</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1391,15 +1391,15 @@
         <v>-0.19</v>
       </c>
       <c r="H27">
-        <v>25.76</v>
+        <v>24.83</v>
       </c>
       <c r="I27">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>25.86</v>
+        <v>25.81</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1420,15 +1420,15 @@
         <v>-0.18</v>
       </c>
       <c r="H28">
-        <v>28.51</v>
+        <v>27.53</v>
       </c>
       <c r="I28">
-        <v>28000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>26.11</v>
+        <v>26.06</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1449,15 +1449,15 @@
         <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>31.36</v>
+        <v>30.33</v>
       </c>
       <c r="I29">
-        <v>33200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>26.36</v>
+        <v>26.31</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1475,18 +1475,18 @@
         <v>0.0053</v>
       </c>
       <c r="G30">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H30">
-        <v>34.3</v>
+        <v>33.23</v>
       </c>
       <c r="I30">
-        <v>238000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>26.61</v>
+        <v>26.56</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -1507,15 +1507,15 @@
         <v>-0.16</v>
       </c>
       <c r="H31">
-        <v>37.31</v>
+        <v>36.2</v>
       </c>
       <c r="I31">
-        <v>40100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>26.86</v>
+        <v>26.81</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -1536,15 +1536,15 @@
         <v>-0.15</v>
       </c>
       <c r="H32">
-        <v>40.36</v>
+        <v>39.22</v>
       </c>
       <c r="I32">
-        <v>123100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>27.11</v>
+        <v>27.06</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1556,24 +1556,24 @@
         <v>78</v>
       </c>
       <c r="E33">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F33">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
       <c r="G33">
         <v>-0.14</v>
       </c>
       <c r="H33">
-        <v>43.45</v>
+        <v>42.29</v>
       </c>
       <c r="I33">
-        <v>63600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>27.36</v>
+        <v>27.31</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -1594,15 +1594,15 @@
         <v>-0.13</v>
       </c>
       <c r="H34">
-        <v>46.55</v>
+        <v>45.37</v>
       </c>
       <c r="I34">
-        <v>28800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>27.61</v>
+        <v>27.56</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -1623,15 +1623,15 @@
         <v>-0.13</v>
       </c>
       <c r="H35">
-        <v>49.64</v>
+        <v>48.45</v>
       </c>
       <c r="I35">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>27.86</v>
+        <v>27.81</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -1643,24 +1643,24 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F36">
-        <v>0.0101</v>
+        <v>0.0097</v>
       </c>
       <c r="G36">
         <v>-0.12</v>
       </c>
       <c r="H36">
-        <v>52.71</v>
+        <v>51.52</v>
       </c>
       <c r="I36">
-        <v>22300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>28.11</v>
+        <v>28.06</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1672,24 +1672,24 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F37">
-        <v>0.011</v>
+        <v>0.0103</v>
       </c>
       <c r="G37">
         <v>-0.11</v>
       </c>
       <c r="H37">
-        <v>55.73</v>
+        <v>54.54</v>
       </c>
       <c r="I37">
-        <v>87300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>28.36</v>
+        <v>28.31</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -1704,21 +1704,21 @@
         <v>0.35</v>
       </c>
       <c r="F38">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="G38">
         <v>-0.1</v>
       </c>
       <c r="H38">
-        <v>58.7</v>
+        <v>57.52</v>
       </c>
       <c r="I38">
-        <v>76600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>28.61</v>
+        <v>28.56</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1730,24 +1730,24 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="F39">
-        <v>0.014</v>
+        <v>0.0126</v>
       </c>
       <c r="G39">
         <v>-0.09</v>
       </c>
       <c r="H39">
-        <v>61.59</v>
+        <v>60.43</v>
       </c>
       <c r="I39">
-        <v>42800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>28.86</v>
+        <v>28.81</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -1768,15 +1768,15 @@
         <v>-0.09</v>
       </c>
       <c r="H40">
-        <v>64.39</v>
+        <v>63.25</v>
       </c>
       <c r="I40">
-        <v>57200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>29.11</v>
+        <v>29.06</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -1788,24 +1788,24 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="F41">
-        <v>0.0168</v>
+        <v>0.0155</v>
       </c>
       <c r="G41">
         <v>-0.08</v>
       </c>
       <c r="H41">
-        <v>67.09</v>
+        <v>65.98</v>
       </c>
       <c r="I41">
-        <v>26500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>29.36</v>
+        <v>29.31</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -1826,15 +1826,15 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H42">
-        <v>69.69</v>
+        <v>68.61</v>
       </c>
       <c r="I42">
-        <v>26100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>29.61</v>
+        <v>29.56</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -1855,15 +1855,15 @@
         <v>-0.06</v>
       </c>
       <c r="H43">
-        <v>72.17</v>
+        <v>71.13</v>
       </c>
       <c r="I43">
-        <v>73400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>29.86</v>
+        <v>29.81</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -1875,24 +1875,24 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F44">
-        <v>0.0224</v>
+        <v>0.0201</v>
       </c>
       <c r="G44">
         <v>-0.05</v>
       </c>
       <c r="H44">
-        <v>74.52</v>
+        <v>73.53</v>
       </c>
       <c r="I44">
-        <v>1034300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>30.11</v>
+        <v>30.06</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
@@ -1904,24 +1904,24 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="F45">
-        <v>0.0246</v>
+        <v>0.0236</v>
       </c>
       <c r="G45">
         <v>-0.05</v>
       </c>
       <c r="H45">
-        <v>76.75</v>
+        <v>75.8</v>
       </c>
       <c r="I45">
-        <v>133200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>30.36</v>
+        <v>30.31</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
@@ -1933,24 +1933,24 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.027</v>
+        <v>0.0264</v>
       </c>
       <c r="G46">
         <v>-0.04</v>
       </c>
       <c r="H46">
-        <v>78.84999999999999</v>
+        <v>77.94</v>
       </c>
       <c r="I46">
-        <v>119200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>30.61</v>
+        <v>30.56</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -1962,24 +1962,24 @@
         <v>78</v>
       </c>
       <c r="E47">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F47">
-        <v>0.0314</v>
+        <v>0.0288</v>
       </c>
       <c r="G47">
         <v>-0.03</v>
       </c>
       <c r="H47">
-        <v>80.81999999999999</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="I47">
-        <v>160200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>30.86</v>
+        <v>30.81</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -1990,22 +1990,25 @@
       <c r="D48" t="s">
         <v>78</v>
       </c>
+      <c r="E48">
+        <v>0.97</v>
+      </c>
       <c r="F48">
-        <v>0.0324</v>
+        <v>0.0315</v>
       </c>
       <c r="G48">
         <v>-0.02</v>
       </c>
       <c r="H48">
-        <v>82.66</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="I48">
-        <v>441100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>31.11</v>
+        <v>31.06</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -2017,24 +2020,24 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="F49">
-        <v>0.0347</v>
+        <v>0.0335</v>
       </c>
       <c r="G49">
         <v>-0.01</v>
       </c>
       <c r="H49">
-        <v>84.36</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I49">
-        <v>230200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>31.36</v>
+        <v>31.31</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
@@ -2046,24 +2049,24 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F50">
-        <v>0.0383</v>
+        <v>0.0377</v>
       </c>
       <c r="G50">
         <v>-0.01</v>
       </c>
       <c r="H50">
-        <v>85.94</v>
+        <v>85.23</v>
       </c>
       <c r="I50">
-        <v>231100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>31.61</v>
+        <v>31.56</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
@@ -2078,21 +2081,21 @@
         <v>1.41</v>
       </c>
       <c r="F51">
-        <v>0.0446</v>
+        <v>0.0447</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>87.40000000000001</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="I51">
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>31.86</v>
+        <v>31.81</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
@@ -2107,21 +2110,21 @@
         <v>1.45</v>
       </c>
       <c r="F52">
-        <v>0.0455</v>
+        <v>0.0456</v>
       </c>
       <c r="G52">
         <v>0.01</v>
       </c>
       <c r="H52">
-        <v>88.73999999999999</v>
+        <v>88.13</v>
       </c>
       <c r="I52">
-        <v>16400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>32.11</v>
+        <v>32.06</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2136,21 +2139,21 @@
         <v>1.57</v>
       </c>
       <c r="F53">
-        <v>0.0489</v>
+        <v>0.049</v>
       </c>
       <c r="G53">
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>89.95999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I53">
-        <v>5600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>32.36</v>
+        <v>32.31</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
@@ -2165,21 +2168,21 @@
         <v>1.96</v>
       </c>
       <c r="F54">
-        <v>0.0606</v>
+        <v>0.0607</v>
       </c>
       <c r="G54">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H54">
-        <v>91.08</v>
+        <v>90.56</v>
       </c>
       <c r="I54">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>32.61</v>
+        <v>32.56</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -2194,13 +2197,13 @@
         <v>7.71</v>
       </c>
       <c r="F55">
-        <v>0.2364</v>
+        <v>0.2368</v>
       </c>
       <c r="G55">
         <v>0.03</v>
       </c>
       <c r="H55">
-        <v>92.09</v>
+        <v>91.61</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>32.86</v>
+        <v>32.81</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -2223,21 +2226,21 @@
         <v>1.88</v>
       </c>
       <c r="F56">
-        <v>0.0572</v>
+        <v>0.0573</v>
       </c>
       <c r="G56">
         <v>0.04</v>
       </c>
       <c r="H56">
-        <v>93.01000000000001</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="I56">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>33.11</v>
+        <v>33.06</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -2252,21 +2255,21 @@
         <v>2.21</v>
       </c>
       <c r="F57">
-        <v>0.0667</v>
+        <v>0.0668</v>
       </c>
       <c r="G57">
         <v>0.05</v>
       </c>
       <c r="H57">
-        <v>93.84</v>
+        <v>93.44</v>
       </c>
       <c r="I57">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>33.61</v>
+        <v>33.56</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -2284,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>95.25</v>
+        <v>94.92</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>34.11</v>
+        <v>34.06</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -2316,7 +2319,7 @@
         <v>0.08</v>
       </c>
       <c r="H59">
-        <v>96.37</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2324,7 +2327,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>34.36</v>
+        <v>34.31</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -2339,21 +2342,21 @@
         <v>3.15</v>
       </c>
       <c r="F60">
-        <v>0.0917</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="G60">
         <v>0.09</v>
       </c>
       <c r="H60">
-        <v>96.84</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I60">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>34.86</v>
+        <v>34.81</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -2368,13 +2371,13 @@
         <v>5.07</v>
       </c>
       <c r="F61">
-        <v>0.1454</v>
+        <v>0.1456</v>
       </c>
       <c r="G61">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H61">
-        <v>97.62</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>35.11</v>
+        <v>35.06</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -2403,7 +2406,7 @@
         <v>0.11</v>
       </c>
       <c r="H62">
-        <v>97.94</v>
+        <v>97.77</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>35.61</v>
+        <v>35.56</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -2426,21 +2429,21 @@
         <v>4.35</v>
       </c>
       <c r="F63">
-        <v>0.1222</v>
+        <v>0.1223</v>
       </c>
       <c r="G63">
         <v>0.13</v>
       </c>
       <c r="H63">
-        <v>98.47</v>
+        <v>98.34</v>
       </c>
       <c r="I63">
-        <v>70000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>36.86</v>
+        <v>36.81</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
@@ -2455,21 +2458,21 @@
         <v>5.4</v>
       </c>
       <c r="F64">
-        <v>0.1465</v>
+        <v>0.1467</v>
       </c>
       <c r="G64">
         <v>0.17</v>
       </c>
       <c r="H64">
-        <v>99.3</v>
+        <v>99.23</v>
       </c>
       <c r="I64">
-        <v>70000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>37.36</v>
+        <v>37.31</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -2484,21 +2487,21 @@
         <v>6.1</v>
       </c>
       <c r="F65">
-        <v>0.1633</v>
+        <v>0.1635</v>
       </c>
       <c r="G65">
         <v>0.18</v>
       </c>
       <c r="H65">
-        <v>99.48999999999999</v>
+        <v>99.44</v>
       </c>
       <c r="I65">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>37.86</v>
+        <v>37.81</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -2513,13 +2516,13 @@
         <v>6.9</v>
       </c>
       <c r="F66">
-        <v>0.1823</v>
+        <v>0.1825</v>
       </c>
       <c r="G66">
         <v>0.2</v>
       </c>
       <c r="H66">
-        <v>99.64</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>38.36</v>
+        <v>38.31</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
@@ -2542,21 +2545,21 @@
         <v>7</v>
       </c>
       <c r="F67">
-        <v>0.1825</v>
+        <v>0.1827</v>
       </c>
       <c r="G67">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H67">
-        <v>99.73999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="I67">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>38.86</v>
+        <v>38.81</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -2577,7 +2580,7 @@
         <v>0.23</v>
       </c>
       <c r="H68">
-        <v>99.81999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2585,7 +2588,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>43.11</v>
+        <v>43.06</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -2600,7 +2603,7 @@
         <v>13.73</v>
       </c>
       <c r="F69">
-        <v>0.3185</v>
+        <v>0.3189</v>
       </c>
       <c r="G69">
         <v>0.37</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -695,7 +695,7 @@
         <v>-0.4</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="H4">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>-0.37</v>
       </c>
       <c r="H5">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>-0.36</v>
       </c>
       <c r="H6">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -808,10 +808,10 @@
         <v>0.001</v>
       </c>
       <c r="G7">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H7">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0.0005</v>
       </c>
       <c r="G8">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="H8">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>-0.34</v>
       </c>
       <c r="H9">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>-0.33</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0.0009</v>
       </c>
       <c r="G11">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="H11">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>78</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F12">
-        <v>0.0009</v>
+        <v>0.0028</v>
       </c>
       <c r="G12">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H12">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -985,7 +985,7 @@
         <v>-0.3</v>
       </c>
       <c r="H13">
-        <v>2.66</v>
+        <v>3.17</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>-0.29</v>
       </c>
       <c r="H14">
-        <v>3.31</v>
+        <v>3.92</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>-0.28</v>
       </c>
       <c r="H15">
-        <v>4.08</v>
+        <v>4.79</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0.0061</v>
       </c>
       <c r="G16">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="H16">
-        <v>4.97</v>
+        <v>5.81</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>78</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F17">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="G17">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H17">
-        <v>5.99</v>
+        <v>6.96</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1130,7 +1130,7 @@
         <v>-0.26</v>
       </c>
       <c r="H18">
-        <v>7.16</v>
+        <v>8.27</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>-0.25</v>
       </c>
       <c r="H19">
-        <v>8.49</v>
+        <v>9.75</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>-0.24</v>
       </c>
       <c r="H20">
-        <v>9.970000000000001</v>
+        <v>11.38</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F21">
-        <v>0.0021</v>
+        <v>0.0025</v>
       </c>
       <c r="G21">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H21">
-        <v>11.62</v>
+        <v>13.19</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1243,10 +1243,10 @@
         <v>0.0021</v>
       </c>
       <c r="G22">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H22">
-        <v>13.43</v>
+        <v>15.16</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>15.4</v>
+        <v>17.3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>17.54</v>
+        <v>19.59</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1324,19 +1324,19 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F25">
-        <v>0.0032</v>
+        <v>0.0028</v>
       </c>
       <c r="G25">
         <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>19.83</v>
+        <v>22.03</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1359,13 +1359,13 @@
         <v>0.0036</v>
       </c>
       <c r="G26">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H26">
-        <v>22.26</v>
+        <v>24.62</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1388,10 +1388,10 @@
         <v>0.0039</v>
       </c>
       <c r="G27">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H27">
-        <v>24.83</v>
+        <v>27.33</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>-0.18</v>
       </c>
       <c r="H28">
-        <v>27.53</v>
+        <v>30.15</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1440,19 +1440,19 @@
         <v>78</v>
       </c>
       <c r="E29">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F29">
-        <v>0.0061</v>
+        <v>0.0042</v>
       </c>
       <c r="G29">
         <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>30.33</v>
+        <v>33.06</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1478,10 +1478,10 @@
         <v>-0.16</v>
       </c>
       <c r="H30">
-        <v>33.23</v>
+        <v>36.06</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1504,13 +1504,13 @@
         <v>0.0056</v>
       </c>
       <c r="G31">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H31">
-        <v>36.2</v>
+        <v>39.11</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1527,19 +1527,19 @@
         <v>78</v>
       </c>
       <c r="E32">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F32">
-        <v>0.0063</v>
+        <v>0.0067</v>
       </c>
       <c r="G32">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H32">
-        <v>39.22</v>
+        <v>42.2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1565,10 +1565,10 @@
         <v>-0.14</v>
       </c>
       <c r="H33">
-        <v>42.29</v>
+        <v>45.31</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1585,19 +1585,19 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F34">
-        <v>0.0077</v>
+        <v>0.0081</v>
       </c>
       <c r="G34">
         <v>-0.13</v>
       </c>
       <c r="H34">
-        <v>45.37</v>
+        <v>48.42</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>112300</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1614,19 +1614,19 @@
         <v>78</v>
       </c>
       <c r="E35">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="F35">
-        <v>0.0116</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G35">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H35">
-        <v>48.45</v>
+        <v>51.51</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1643,19 +1643,19 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F36">
-        <v>0.0097</v>
+        <v>0.0101</v>
       </c>
       <c r="G36">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H36">
-        <v>51.52</v>
+        <v>54.57</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>54400</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="F37">
-        <v>0.0103</v>
+        <v>0.011</v>
       </c>
       <c r="G37">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H37">
-        <v>54.54</v>
+        <v>57.57</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1701,19 +1701,19 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F38">
-        <v>0.0124</v>
+        <v>0.012</v>
       </c>
       <c r="G38">
         <v>-0.1</v>
       </c>
       <c r="H38">
-        <v>57.52</v>
+        <v>60.5</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F39">
-        <v>0.0126</v>
+        <v>0.0133</v>
       </c>
       <c r="G39">
         <v>-0.09</v>
       </c>
       <c r="H39">
-        <v>60.43</v>
+        <v>63.35</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1765,13 +1765,13 @@
         <v>0.0149</v>
       </c>
       <c r="G40">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H40">
-        <v>63.25</v>
+        <v>66.11</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1788,19 +1788,19 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="F41">
-        <v>0.0155</v>
+        <v>0.0169</v>
       </c>
       <c r="G41">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H41">
-        <v>65.98</v>
+        <v>68.75</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>369100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>78</v>
       </c>
       <c r="E42">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="F42">
-        <v>0.0184</v>
+        <v>0.0188</v>
       </c>
       <c r="G42">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H42">
-        <v>68.61</v>
+        <v>71.28</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="F43">
-        <v>0.0196</v>
+        <v>0.0206</v>
       </c>
       <c r="G43">
         <v>-0.06</v>
       </c>
       <c r="H43">
-        <v>71.13</v>
+        <v>73.69</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>99500</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F44">
-        <v>0.0201</v>
+        <v>0.0235</v>
       </c>
       <c r="G44">
         <v>-0.05</v>
       </c>
       <c r="H44">
-        <v>73.53</v>
+        <v>75.98</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>766600</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1904,19 +1904,19 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="F45">
-        <v>0.0236</v>
+        <v>0.0253</v>
       </c>
       <c r="G45">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H45">
-        <v>75.8</v>
+        <v>78.13</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>103600</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="F46">
-        <v>0.0264</v>
+        <v>0.0277</v>
       </c>
       <c r="G46">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H46">
-        <v>77.94</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>442500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1962,19 +1962,19 @@
         <v>78</v>
       </c>
       <c r="E47">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F47">
-        <v>0.0288</v>
+        <v>0.0314</v>
       </c>
       <c r="G47">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="H47">
-        <v>79.95999999999999</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1991,19 +1991,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F48">
-        <v>0.0315</v>
+        <v>0.0334</v>
       </c>
       <c r="G48">
         <v>-0.02</v>
       </c>
       <c r="H48">
-        <v>81.84999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>263600</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2020,19 +2020,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="F49">
-        <v>0.0335</v>
+        <v>0.0361</v>
       </c>
       <c r="G49">
         <v>-0.01</v>
       </c>
       <c r="H49">
-        <v>83.59999999999999</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>50900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2049,19 +2049,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="F50">
-        <v>0.0377</v>
+        <v>0.0406</v>
       </c>
       <c r="G50">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>85.23</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2078,19 +2078,19 @@
         <v>78</v>
       </c>
       <c r="E51">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="F51">
-        <v>0.0447</v>
+        <v>0.0431</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H51">
-        <v>86.73999999999999</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2107,19 +2107,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="F52">
-        <v>0.0456</v>
+        <v>0.0475</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H52">
-        <v>88.13</v>
+        <v>89.58</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>578600</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2145,7 +2145,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>89.40000000000001</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="F54">
-        <v>0.0607</v>
+        <v>0.0563</v>
       </c>
       <c r="G54">
         <v>0.03</v>
       </c>
       <c r="H54">
-        <v>90.56</v>
+        <v>91.78</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2194,19 +2194,19 @@
         <v>78</v>
       </c>
       <c r="E55">
-        <v>7.71</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0.2368</v>
+        <v>0.0614</v>
       </c>
       <c r="G55">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H55">
-        <v>91.61</v>
+        <v>92.73</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2223,19 +2223,19 @@
         <v>78</v>
       </c>
       <c r="E56">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="F56">
-        <v>0.0573</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="G56">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H56">
-        <v>92.56999999999999</v>
+        <v>93.59</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>120500</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2252,19 +2252,19 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="F57">
-        <v>0.0668</v>
+        <v>0.0702</v>
       </c>
       <c r="G57">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H57">
-        <v>93.44</v>
+        <v>94.36</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>241000</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2290,7 +2290,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>94.92</v>
+        <v>95.67</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H59">
-        <v>96.09999999999999</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2339,19 +2339,19 @@
         <v>78</v>
       </c>
       <c r="E60">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="F60">
-        <v>0.09180000000000001</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="G60">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
-        <v>96.59999999999999</v>
+        <v>97.14</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2377,7 +2377,7 @@
         <v>0.11</v>
       </c>
       <c r="H61">
-        <v>97.43000000000001</v>
+        <v>97.86</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H62">
-        <v>97.77</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>0.1223</v>
       </c>
       <c r="G63">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H63">
-        <v>98.34</v>
+        <v>98.63</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0.1467</v>
       </c>
       <c r="G64">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H64">
-        <v>99.23</v>
+        <v>99.38</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>78</v>
       </c>
       <c r="E65">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="F65">
-        <v>0.1635</v>
+        <v>0.1581</v>
       </c>
       <c r="G65">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H65">
-        <v>99.44</v>
+        <v>99.55</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2519,10 +2519,10 @@
         <v>0.1825</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H66">
-        <v>99.59999999999999</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2542,19 +2542,19 @@
         <v>78</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F67">
-        <v>0.1827</v>
+        <v>0.1801</v>
       </c>
       <c r="G67">
         <v>0.22</v>
       </c>
       <c r="H67">
-        <v>99.70999999999999</v>
+        <v>99.77</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H68">
-        <v>99.8</v>
+        <v>99.84</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0.3189</v>
       </c>
       <c r="G69">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H69">
         <v>99.98999999999999</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -695,7 +695,7 @@
         <v>-0.4</v>
       </c>
       <c r="H3">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>-0.38</v>
       </c>
       <c r="H4">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>-0.37</v>
       </c>
       <c r="H5">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>-0.36</v>
       </c>
       <c r="H6">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="I6">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -811,7 +811,7 @@
         <v>-0.35</v>
       </c>
       <c r="H7">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>-0.34</v>
       </c>
       <c r="H8">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -866,10 +866,10 @@
         <v>0.0029</v>
       </c>
       <c r="G9">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H9">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>-0.33</v>
       </c>
       <c r="H10">
-        <v>1.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.31</v>
       </c>
       <c r="H11">
-        <v>2.01</v>
+        <v>1.4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>-0.3</v>
       </c>
       <c r="H12">
-        <v>2.54</v>
+        <v>1.81</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -982,10 +982,10 @@
         <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H13">
-        <v>3.17</v>
+        <v>2.3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>-0.29</v>
       </c>
       <c r="H14">
-        <v>3.92</v>
+        <v>2.91</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>-0.28</v>
       </c>
       <c r="H15">
-        <v>4.79</v>
+        <v>3.62</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>-0.27</v>
       </c>
       <c r="H16">
-        <v>5.81</v>
+        <v>4.47</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>78</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="G17">
         <v>-0.26</v>
       </c>
       <c r="H17">
-        <v>6.96</v>
+        <v>5.46</v>
       </c>
       <c r="I17">
-        <v>300</v>
+        <v>51700</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1127,10 +1127,10 @@
         <v>0.0034</v>
       </c>
       <c r="G18">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="H18">
-        <v>8.27</v>
+        <v>6.6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>-0.25</v>
       </c>
       <c r="H19">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>-0.24</v>
       </c>
       <c r="H20">
-        <v>11.38</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21">
-        <v>0.0025</v>
+        <v>0.0029</v>
       </c>
       <c r="G21">
         <v>-0.23</v>
       </c>
       <c r="H21">
-        <v>13.19</v>
+        <v>11.02</v>
       </c>
       <c r="I21">
-        <v>11200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1246,7 +1246,7 @@
         <v>-0.22</v>
       </c>
       <c r="H22">
-        <v>15.16</v>
+        <v>12.84</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0.002</v>
       </c>
       <c r="G23">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H23">
-        <v>17.3</v>
+        <v>14.85</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1304,10 +1304,10 @@
         <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>19.59</v>
+        <v>17.02</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1324,19 +1324,19 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F25">
-        <v>0.0028</v>
+        <v>0.0024</v>
       </c>
       <c r="G25">
         <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>22.03</v>
+        <v>19.37</v>
       </c>
       <c r="I25">
-        <v>12700</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1362,10 +1362,10 @@
         <v>-0.19</v>
       </c>
       <c r="H26">
-        <v>24.62</v>
+        <v>21.87</v>
       </c>
       <c r="I26">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F27">
-        <v>0.0039</v>
+        <v>0.0031</v>
       </c>
       <c r="G27">
         <v>-0.18</v>
       </c>
       <c r="H27">
-        <v>27.33</v>
+        <v>24.53</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1411,19 +1411,19 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F28">
-        <v>0.0039</v>
+        <v>0.0035</v>
       </c>
       <c r="G28">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H28">
-        <v>30.15</v>
+        <v>27.32</v>
       </c>
       <c r="I28">
-        <v>8900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1449,10 +1449,10 @@
         <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>33.06</v>
+        <v>30.24</v>
       </c>
       <c r="I29">
-        <v>6700</v>
+        <v>105200</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>78</v>
       </c>
       <c r="E30">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>0.0053</v>
+        <v>0.0046</v>
       </c>
       <c r="G30">
         <v>-0.16</v>
       </c>
       <c r="H30">
-        <v>36.06</v>
+        <v>33.25</v>
       </c>
       <c r="I30">
-        <v>5200</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>78</v>
       </c>
       <c r="E31">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F31">
-        <v>0.0056</v>
+        <v>0.0049</v>
       </c>
       <c r="G31">
         <v>-0.15</v>
       </c>
       <c r="H31">
-        <v>39.11</v>
+        <v>36.35</v>
       </c>
       <c r="I31">
-        <v>2500</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1527,19 +1527,19 @@
         <v>78</v>
       </c>
       <c r="E32">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F32">
-        <v>0.0067</v>
+        <v>0.006</v>
       </c>
       <c r="G32">
         <v>-0.14</v>
       </c>
       <c r="H32">
-        <v>42.2</v>
+        <v>39.51</v>
       </c>
       <c r="I32">
-        <v>28900</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1562,13 +1562,13 @@
         <v>0.0067</v>
       </c>
       <c r="G33">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H33">
-        <v>45.31</v>
+        <v>42.71</v>
       </c>
       <c r="I33">
-        <v>40800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1585,19 +1585,19 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
-        <v>0.0081</v>
+        <v>0.0073</v>
       </c>
       <c r="G34">
         <v>-0.13</v>
       </c>
       <c r="H34">
-        <v>48.42</v>
+        <v>45.93</v>
       </c>
       <c r="I34">
-        <v>112300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1614,19 +1614,19 @@
         <v>78</v>
       </c>
       <c r="E35">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F35">
-        <v>0.008699999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="G35">
         <v>-0.12</v>
       </c>
       <c r="H35">
-        <v>51.51</v>
+        <v>49.14</v>
       </c>
       <c r="I35">
-        <v>1900</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1652,10 +1652,10 @@
         <v>-0.11</v>
       </c>
       <c r="H36">
-        <v>54.57</v>
+        <v>52.33</v>
       </c>
       <c r="I36">
-        <v>54400</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="F37">
-        <v>0.011</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G37">
         <v>-0.1</v>
       </c>
       <c r="H37">
-        <v>57.57</v>
+        <v>55.48</v>
       </c>
       <c r="I37">
-        <v>97000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1701,19 +1701,19 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F38">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="G38">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H38">
-        <v>60.5</v>
+        <v>58.57</v>
       </c>
       <c r="I38">
-        <v>36500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F39">
-        <v>0.0133</v>
+        <v>0.0116</v>
       </c>
       <c r="G39">
         <v>-0.09</v>
       </c>
       <c r="H39">
-        <v>63.35</v>
+        <v>61.58</v>
       </c>
       <c r="I39">
-        <v>22300</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="F40">
-        <v>0.0149</v>
+        <v>0.0142</v>
       </c>
       <c r="G40">
         <v>-0.08</v>
       </c>
       <c r="H40">
-        <v>66.11</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="I40">
-        <v>109500</v>
+        <v>231100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1788,19 +1788,19 @@
         <v>78</v>
       </c>
       <c r="E41">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F41">
-        <v>0.0169</v>
+        <v>0.0172</v>
       </c>
       <c r="G41">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H41">
-        <v>68.75</v>
+        <v>67.3</v>
       </c>
       <c r="I41">
-        <v>369100</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1826,10 +1826,10 @@
         <v>-0.06</v>
       </c>
       <c r="H42">
-        <v>71.28</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="I42">
-        <v>132700</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="F43">
-        <v>0.0206</v>
+        <v>0.0223</v>
       </c>
       <c r="G43">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H43">
-        <v>73.69</v>
+        <v>72.56</v>
       </c>
       <c r="I43">
-        <v>99500</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F44">
-        <v>0.0235</v>
+        <v>0.0238</v>
       </c>
       <c r="G44">
         <v>-0.05</v>
       </c>
       <c r="H44">
-        <v>75.98</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="I44">
-        <v>766600</v>
+        <v>183300</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1904,19 +1904,19 @@
         <v>78</v>
       </c>
       <c r="E45">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F45">
-        <v>0.0253</v>
+        <v>0.0256</v>
       </c>
       <c r="G45">
         <v>-0.04</v>
       </c>
       <c r="H45">
-        <v>78.13</v>
+        <v>77.28</v>
       </c>
       <c r="I45">
-        <v>103600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F46">
-        <v>0.0277</v>
+        <v>0.0287</v>
       </c>
       <c r="G46">
         <v>-0.03</v>
       </c>
       <c r="H46">
-        <v>80.15000000000001</v>
+        <v>79.44</v>
       </c>
       <c r="I46">
-        <v>442500</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1961,20 +1961,17 @@
       <c r="D47" t="s">
         <v>78</v>
       </c>
-      <c r="E47">
-        <v>0.96</v>
-      </c>
       <c r="F47">
-        <v>0.0314</v>
+        <v>0.0327</v>
       </c>
       <c r="G47">
         <v>-0.02</v>
       </c>
       <c r="H47">
-        <v>82.04000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="I47">
-        <v>16200</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1991,19 +1988,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="F48">
-        <v>0.0334</v>
+        <v>0.036</v>
       </c>
       <c r="G48">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H48">
-        <v>83.8</v>
+        <v>83.31</v>
       </c>
       <c r="I48">
-        <v>263600</v>
+        <v>279500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2020,19 +2017,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="F49">
-        <v>0.0361</v>
+        <v>0.0386</v>
       </c>
       <c r="G49">
         <v>-0.01</v>
       </c>
       <c r="H49">
-        <v>85.43000000000001</v>
+        <v>85.04000000000001</v>
       </c>
       <c r="I49">
-        <v>50900</v>
+        <v>500300</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2049,19 +2046,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F50">
-        <v>0.0406</v>
+        <v>0.039</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>86.93000000000001</v>
+        <v>86.64</v>
       </c>
       <c r="I50">
-        <v>26700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2078,19 +2075,19 @@
         <v>78</v>
       </c>
       <c r="E51">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="F51">
-        <v>0.0431</v>
+        <v>0.0459</v>
       </c>
       <c r="G51">
         <v>0.01</v>
       </c>
       <c r="H51">
-        <v>88.31999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I51">
-        <v>9100</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2107,19 +2104,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F52">
-        <v>0.0475</v>
+        <v>0.0497</v>
       </c>
       <c r="G52">
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>89.58</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="I52">
-        <v>578600</v>
+        <v>680200</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2136,19 +2133,19 @@
         <v>78</v>
       </c>
       <c r="E53">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="F53">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="G53">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H53">
-        <v>90.73999999999999</v>
+        <v>90.64</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2165,19 +2162,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="F54">
-        <v>0.0563</v>
+        <v>0.0529</v>
       </c>
       <c r="G54">
         <v>0.03</v>
       </c>
       <c r="H54">
-        <v>91.78</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="I54">
-        <v>8400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2194,19 +2191,19 @@
         <v>78</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="F55">
-        <v>0.0614</v>
+        <v>0.0605</v>
       </c>
       <c r="G55">
         <v>0.04</v>
       </c>
       <c r="H55">
-        <v>92.73</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="I55">
-        <v>41600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2223,19 +2220,19 @@
         <v>78</v>
       </c>
       <c r="E56">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F56">
-        <v>0.06610000000000001</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="G56">
         <v>0.05</v>
       </c>
       <c r="H56">
-        <v>93.59</v>
+        <v>93.63</v>
       </c>
       <c r="I56">
-        <v>120500</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2252,19 +2249,19 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="F57">
-        <v>0.0702</v>
+        <v>0.0668</v>
       </c>
       <c r="G57">
         <v>0.06</v>
       </c>
       <c r="H57">
-        <v>94.36</v>
+        <v>94.42</v>
       </c>
       <c r="I57">
-        <v>241000</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2290,7 +2287,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>95.67</v>
+        <v>95.77</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2319,7 +2316,7 @@
         <v>0.09</v>
       </c>
       <c r="H59">
-        <v>96.70999999999999</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2348,10 +2345,10 @@
         <v>0.1</v>
       </c>
       <c r="H60">
-        <v>97.14</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="I60">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2368,19 +2365,19 @@
         <v>78</v>
       </c>
       <c r="E61">
-        <v>5.07</v>
+        <v>3.63</v>
       </c>
       <c r="F61">
-        <v>0.1456</v>
+        <v>0.1043</v>
       </c>
       <c r="G61">
         <v>0.11</v>
       </c>
       <c r="H61">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2406,7 +2403,7 @@
         <v>0.12</v>
       </c>
       <c r="H62">
-        <v>98.15000000000001</v>
+        <v>98.27</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2435,7 +2432,7 @@
         <v>0.14</v>
       </c>
       <c r="H63">
-        <v>98.63</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2464,10 +2461,10 @@
         <v>0.18</v>
       </c>
       <c r="H64">
-        <v>99.38</v>
+        <v>99.45</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2493,10 +2490,10 @@
         <v>0.19</v>
       </c>
       <c r="H65">
-        <v>99.55</v>
+        <v>99.61</v>
       </c>
       <c r="I65">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2513,19 +2510,19 @@
         <v>78</v>
       </c>
       <c r="E66">
-        <v>6.9</v>
+        <v>6.37</v>
       </c>
       <c r="F66">
-        <v>0.1825</v>
+        <v>0.1685</v>
       </c>
       <c r="G66">
         <v>0.21</v>
       </c>
       <c r="H66">
-        <v>99.68000000000001</v>
+        <v>99.73</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>27700</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2548,13 +2545,13 @@
         <v>0.1801</v>
       </c>
       <c r="G67">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H67">
-        <v>99.77</v>
+        <v>99.81</v>
       </c>
       <c r="I67">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2580,7 +2577,7 @@
         <v>0.24</v>
       </c>
       <c r="H68">
-        <v>99.84</v>
+        <v>99.87</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2609,7 +2606,7 @@
         <v>0.38</v>
       </c>
       <c r="H69">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="I69">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -724,7 +724,7 @@
         <v>-0.38</v>
       </c>
       <c r="H4">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>-0.37</v>
       </c>
       <c r="H5">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>-0.36</v>
       </c>
       <c r="H6">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>-0.35</v>
       </c>
       <c r="H7">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>-0.34</v>
       </c>
       <c r="H8">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="I8">
         <v>800</v>
@@ -866,10 +866,10 @@
         <v>0.0029</v>
       </c>
       <c r="G9">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>-0.33</v>
       </c>
       <c r="H10">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.31</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>-0.3</v>
       </c>
       <c r="H12">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>-0.29</v>
       </c>
       <c r="H14">
-        <v>2.91</v>
+        <v>2.56</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>-0.28</v>
       </c>
       <c r="H15">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>-0.27</v>
       </c>
       <c r="H16">
-        <v>4.47</v>
+        <v>3.98</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0.0013</v>
       </c>
       <c r="G17">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H17">
-        <v>5.46</v>
+        <v>4.89</v>
       </c>
       <c r="I17">
         <v>51700</v>
@@ -1127,10 +1127,10 @@
         <v>0.0034</v>
       </c>
       <c r="G18">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H18">
-        <v>6.6</v>
+        <v>5.93</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>-0.25</v>
       </c>
       <c r="H19">
-        <v>7.9</v>
+        <v>7.14</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>-0.24</v>
       </c>
       <c r="H20">
-        <v>9.369999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>-0.23</v>
       </c>
       <c r="H21">
-        <v>11.02</v>
+        <v>10.03</v>
       </c>
       <c r="I21">
         <v>500</v>
@@ -1243,10 +1243,10 @@
         <v>0.0021</v>
       </c>
       <c r="G22">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H22">
-        <v>12.84</v>
+        <v>11.74</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0.002</v>
       </c>
       <c r="G23">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>14.85</v>
+        <v>13.63</v>
       </c>
       <c r="I23">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1304,7 +1304,7 @@
         <v>-0.21</v>
       </c>
       <c r="H24">
-        <v>17.02</v>
+        <v>15.69</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>19.37</v>
+        <v>17.92</v>
       </c>
       <c r="I25">
-        <v>12000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1362,7 +1362,7 @@
         <v>-0.19</v>
       </c>
       <c r="H26">
-        <v>21.87</v>
+        <v>20.31</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0.0031</v>
       </c>
       <c r="G27">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H27">
-        <v>24.53</v>
+        <v>22.86</v>
       </c>
       <c r="I27">
         <v>2400</v>
@@ -1417,13 +1417,13 @@
         <v>0.0035</v>
       </c>
       <c r="G28">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H28">
-        <v>27.32</v>
+        <v>25.55</v>
       </c>
       <c r="I28">
-        <v>2000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1449,7 +1449,7 @@
         <v>-0.17</v>
       </c>
       <c r="H29">
-        <v>30.24</v>
+        <v>28.38</v>
       </c>
       <c r="I29">
         <v>105200</v>
@@ -1478,7 +1478,7 @@
         <v>-0.16</v>
       </c>
       <c r="H30">
-        <v>33.25</v>
+        <v>31.31</v>
       </c>
       <c r="I30">
         <v>110000</v>
@@ -1507,10 +1507,10 @@
         <v>-0.15</v>
       </c>
       <c r="H31">
-        <v>36.35</v>
+        <v>34.34</v>
       </c>
       <c r="I31">
-        <v>14600</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1533,10 +1533,10 @@
         <v>0.006</v>
       </c>
       <c r="G32">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H32">
-        <v>39.51</v>
+        <v>37.44</v>
       </c>
       <c r="I32">
         <v>13700</v>
@@ -1562,10 +1562,10 @@
         <v>0.0067</v>
       </c>
       <c r="G33">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H33">
-        <v>42.71</v>
+        <v>40.6</v>
       </c>
       <c r="I33">
         <v>200</v>
@@ -1594,10 +1594,10 @@
         <v>-0.13</v>
       </c>
       <c r="H34">
-        <v>45.93</v>
+        <v>43.79</v>
       </c>
       <c r="I34">
-        <v>30000</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1623,7 +1623,7 @@
         <v>-0.12</v>
       </c>
       <c r="H35">
-        <v>49.14</v>
+        <v>46.99</v>
       </c>
       <c r="I35">
         <v>62100</v>
@@ -1643,19 +1643,19 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="F36">
-        <v>0.0101</v>
+        <v>0.0086</v>
       </c>
       <c r="G36">
         <v>-0.11</v>
       </c>
       <c r="H36">
-        <v>52.33</v>
+        <v>50.18</v>
       </c>
       <c r="I36">
-        <v>44800</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F37">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
       <c r="G37">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H37">
-        <v>55.48</v>
+        <v>53.34</v>
       </c>
       <c r="I37">
-        <v>11500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1707,10 +1707,10 @@
         <v>0.011</v>
       </c>
       <c r="G38">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H38">
-        <v>58.57</v>
+        <v>56.45</v>
       </c>
       <c r="I38">
         <v>6000</v>
@@ -1739,7 +1739,7 @@
         <v>-0.09</v>
       </c>
       <c r="H39">
-        <v>61.58</v>
+        <v>59.5</v>
       </c>
       <c r="I39">
         <v>4400</v>
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F40">
-        <v>0.0142</v>
+        <v>0.0139</v>
       </c>
       <c r="G40">
         <v>-0.08</v>
       </c>
       <c r="H40">
-        <v>64.48999999999999</v>
+        <v>62.46</v>
       </c>
       <c r="I40">
-        <v>231100</v>
+        <v>264100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1797,10 +1797,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H41">
-        <v>67.3</v>
+        <v>65.33</v>
       </c>
       <c r="I41">
-        <v>31000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1823,10 +1823,10 @@
         <v>0.0188</v>
       </c>
       <c r="G42">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H42">
-        <v>69.98999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="I42">
         <v>22600</v>
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="F43">
-        <v>0.0223</v>
+        <v>0.0193</v>
       </c>
       <c r="G43">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H43">
-        <v>72.56</v>
+        <v>70.73</v>
       </c>
       <c r="I43">
-        <v>45300</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="F44">
-        <v>0.0238</v>
+        <v>0.0218</v>
       </c>
       <c r="G44">
         <v>-0.05</v>
       </c>
       <c r="H44">
-        <v>74.98999999999999</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="I44">
-        <v>183300</v>
+        <v>211000</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1913,7 +1913,7 @@
         <v>-0.04</v>
       </c>
       <c r="H45">
-        <v>77.28</v>
+        <v>75.62</v>
       </c>
       <c r="I45">
         <v>5400</v>
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F46">
-        <v>0.0287</v>
+        <v>0.0267</v>
       </c>
       <c r="G46">
         <v>-0.03</v>
       </c>
       <c r="H46">
-        <v>79.44</v>
+        <v>77.86</v>
       </c>
       <c r="I46">
-        <v>59000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1965,10 +1965,10 @@
         <v>0.0327</v>
       </c>
       <c r="G47">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H47">
-        <v>81.45</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="I47">
         <v>6900</v>
@@ -1988,19 +1988,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="F48">
-        <v>0.036</v>
+        <v>0.0328</v>
       </c>
       <c r="G48">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H48">
-        <v>83.31</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="I48">
-        <v>279500</v>
+        <v>315700</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2026,7 +2026,7 @@
         <v>-0.01</v>
       </c>
       <c r="H49">
-        <v>85.04000000000001</v>
+        <v>83.75</v>
       </c>
       <c r="I49">
         <v>500300</v>
@@ -2046,19 +2046,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="F50">
-        <v>0.039</v>
+        <v>0.0399</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H50">
-        <v>86.64</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="I50">
-        <v>1800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2084,7 +2084,7 @@
         <v>0.01</v>
       </c>
       <c r="H51">
-        <v>88.09999999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="I51">
         <v>93600</v>
@@ -2104,19 +2104,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="F52">
-        <v>0.0497</v>
+        <v>0.0465</v>
       </c>
       <c r="G52">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H52">
-        <v>89.43000000000001</v>
+        <v>88.41</v>
       </c>
       <c r="I52">
-        <v>680200</v>
+        <v>756100</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2139,10 +2139,10 @@
         <v>0.054</v>
       </c>
       <c r="G53">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H53">
-        <v>90.64</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="I53">
         <v>19000</v>
@@ -2162,19 +2162,19 @@
         <v>78</v>
       </c>
       <c r="E54">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="F54">
-        <v>0.0529</v>
+        <v>0.0554</v>
       </c>
       <c r="G54">
         <v>0.03</v>
       </c>
       <c r="H54">
-        <v>91.73999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="I54">
-        <v>2200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2200,7 +2200,7 @@
         <v>0.04</v>
       </c>
       <c r="H55">
-        <v>92.73999999999999</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="I55">
         <v>5800</v>
@@ -2229,7 +2229,7 @@
         <v>0.05</v>
       </c>
       <c r="H56">
-        <v>93.63</v>
+        <v>92.92</v>
       </c>
       <c r="I56">
         <v>9200</v>
@@ -2255,10 +2255,10 @@
         <v>0.0668</v>
       </c>
       <c r="G57">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H57">
-        <v>94.42</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="I57">
         <v>25100</v>
@@ -2287,7 +2287,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>95.77</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0.09</v>
       </c>
       <c r="H59">
-        <v>96.81999999999999</v>
+        <v>96.42</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2342,10 +2342,10 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="G60">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H60">
-        <v>97.26000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0.11</v>
       </c>
       <c r="H61">
-        <v>97.98</v>
+        <v>97.7</v>
       </c>
       <c r="I61">
         <v>2000</v>
@@ -2403,7 +2403,7 @@
         <v>0.12</v>
       </c>
       <c r="H62">
-        <v>98.27</v>
+        <v>98.02</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2429,10 +2429,10 @@
         <v>0.1223</v>
       </c>
       <c r="G63">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H63">
-        <v>98.73999999999999</v>
+        <v>98.55</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0.1467</v>
       </c>
       <c r="G64">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H64">
-        <v>99.45</v>
+        <v>99.36</v>
       </c>
       <c r="I64">
         <v>300</v>
@@ -2490,7 +2490,7 @@
         <v>0.19</v>
       </c>
       <c r="H65">
-        <v>99.61</v>
+        <v>99.55</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2516,10 +2516,10 @@
         <v>0.1685</v>
       </c>
       <c r="G66">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H66">
-        <v>99.73</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="I66">
         <v>27700</v>
@@ -2545,10 +2545,10 @@
         <v>0.1801</v>
       </c>
       <c r="G67">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H67">
-        <v>99.81</v>
+        <v>99.78</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0.24</v>
       </c>
       <c r="H68">
-        <v>99.87</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0.3189</v>
       </c>
       <c r="G69">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="I69">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -692,7 +692,7 @@
         <v>0.0016</v>
       </c>
       <c r="G3">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H3">
         <v>0.03</v>
@@ -724,7 +724,7 @@
         <v>-0.38</v>
       </c>
       <c r="H4">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0.0061</v>
       </c>
       <c r="G5">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="H5">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0.0005</v>
       </c>
       <c r="G6">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>-0.35</v>
       </c>
       <c r="H7">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>-0.34</v>
       </c>
       <c r="H8">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I8">
         <v>800</v>
@@ -866,10 +866,10 @@
         <v>0.0029</v>
       </c>
       <c r="G9">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H9">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0.0033</v>
       </c>
       <c r="G10">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="H10">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-0.31</v>
       </c>
       <c r="H11">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>-0.3</v>
       </c>
       <c r="H12">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H13">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0.0018</v>
       </c>
       <c r="G14">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="H14">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0.0013</v>
       </c>
       <c r="G15">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="H15">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>-0.27</v>
       </c>
       <c r="H16">
-        <v>3.98</v>
+        <v>4.27</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0.0013</v>
       </c>
       <c r="G17">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H17">
-        <v>4.89</v>
+        <v>5.22</v>
       </c>
       <c r="I17">
         <v>51700</v>
@@ -1127,10 +1127,10 @@
         <v>0.0034</v>
       </c>
       <c r="G18">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="H18">
-        <v>5.93</v>
+        <v>6.32</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0.0017</v>
       </c>
       <c r="G19">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="H19">
-        <v>7.14</v>
+        <v>7.58</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>0.0021</v>
       </c>
       <c r="G20">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H20">
-        <v>8.5</v>
+        <v>9.01</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>-0.23</v>
       </c>
       <c r="H21">
-        <v>10.03</v>
+        <v>10.61</v>
       </c>
       <c r="I21">
         <v>500</v>
@@ -1243,10 +1243,10 @@
         <v>0.0021</v>
       </c>
       <c r="G22">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H22">
-        <v>11.74</v>
+        <v>12.38</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0.002</v>
       </c>
       <c r="G23">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H23">
-        <v>13.63</v>
+        <v>14.33</v>
       </c>
       <c r="I23">
         <v>700</v>
@@ -1301,10 +1301,10 @@
         <v>0.0028</v>
       </c>
       <c r="G24">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="H24">
-        <v>15.69</v>
+        <v>16.46</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0.0024</v>
       </c>
       <c r="G25">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H25">
-        <v>17.92</v>
+        <v>18.76</v>
       </c>
       <c r="I25">
-        <v>14000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1353,19 +1353,19 @@
         <v>78</v>
       </c>
       <c r="E26">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F26">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
       <c r="G26">
         <v>-0.19</v>
       </c>
       <c r="H26">
-        <v>20.31</v>
+        <v>21.22</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1388,10 +1388,10 @@
         <v>0.0031</v>
       </c>
       <c r="G27">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H27">
-        <v>22.86</v>
+        <v>23.83</v>
       </c>
       <c r="I27">
         <v>2400</v>
@@ -1417,10 +1417,10 @@
         <v>0.0035</v>
       </c>
       <c r="G28">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H28">
-        <v>25.55</v>
+        <v>26.59</v>
       </c>
       <c r="I28">
         <v>29000</v>
@@ -1446,13 +1446,13 @@
         <v>0.0042</v>
       </c>
       <c r="G29">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H29">
-        <v>28.38</v>
+        <v>29.46</v>
       </c>
       <c r="I29">
-        <v>105200</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1475,13 +1475,13 @@
         <v>0.0046</v>
       </c>
       <c r="G30">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H30">
-        <v>31.31</v>
+        <v>32.45</v>
       </c>
       <c r="I30">
-        <v>110000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>78</v>
       </c>
       <c r="E31">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
-        <v>0.0049</v>
+        <v>0.0056</v>
       </c>
       <c r="G31">
         <v>-0.15</v>
       </c>
       <c r="H31">
-        <v>34.34</v>
+        <v>35.51</v>
       </c>
       <c r="I31">
-        <v>18200</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1533,13 +1533,13 @@
         <v>0.006</v>
       </c>
       <c r="G32">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H32">
-        <v>37.44</v>
+        <v>38.65</v>
       </c>
       <c r="I32">
-        <v>13700</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1562,10 +1562,10 @@
         <v>0.0067</v>
       </c>
       <c r="G33">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H33">
-        <v>40.6</v>
+        <v>41.83</v>
       </c>
       <c r="I33">
         <v>200</v>
@@ -1591,10 +1591,10 @@
         <v>0.0073</v>
       </c>
       <c r="G34">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H34">
-        <v>43.79</v>
+        <v>45.04</v>
       </c>
       <c r="I34">
         <v>41600</v>
@@ -1620,10 +1620,10 @@
         <v>0.008</v>
       </c>
       <c r="G35">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H35">
-        <v>46.99</v>
+        <v>48.25</v>
       </c>
       <c r="I35">
         <v>62100</v>
@@ -1652,7 +1652,7 @@
         <v>-0.11</v>
       </c>
       <c r="H36">
-        <v>50.18</v>
+        <v>51.44</v>
       </c>
       <c r="I36">
         <v>44900</v>
@@ -1672,19 +1672,19 @@
         <v>78</v>
       </c>
       <c r="E37">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F37">
-        <v>0.0103</v>
+        <v>0.0114</v>
       </c>
       <c r="G37">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H37">
-        <v>53.34</v>
+        <v>54.6</v>
       </c>
       <c r="I37">
-        <v>21500</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1707,10 +1707,10 @@
         <v>0.011</v>
       </c>
       <c r="G38">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H38">
-        <v>56.45</v>
+        <v>57.7</v>
       </c>
       <c r="I38">
         <v>6000</v>
@@ -1730,19 +1730,19 @@
         <v>78</v>
       </c>
       <c r="E39">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F39">
-        <v>0.0116</v>
+        <v>0.014</v>
       </c>
       <c r="G39">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H39">
-        <v>59.5</v>
+        <v>60.72</v>
       </c>
       <c r="I39">
-        <v>4400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1759,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F40">
-        <v>0.0139</v>
+        <v>0.0146</v>
       </c>
       <c r="G40">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H40">
-        <v>62.46</v>
+        <v>63.66</v>
       </c>
       <c r="I40">
-        <v>264100</v>
+        <v>264800</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1797,10 +1797,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H41">
-        <v>65.33</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="I41">
-        <v>31500</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>78</v>
       </c>
       <c r="E42">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="F42">
-        <v>0.0188</v>
+        <v>0.0201</v>
       </c>
       <c r="G42">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H42">
-        <v>68.09</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="I42">
-        <v>22600</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>78</v>
       </c>
       <c r="E43">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="F43">
-        <v>0.0193</v>
+        <v>0.022</v>
       </c>
       <c r="G43">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H43">
-        <v>70.73</v>
+        <v>71.81</v>
       </c>
       <c r="I43">
-        <v>45400</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1875,19 +1875,19 @@
         <v>78</v>
       </c>
       <c r="E44">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="F44">
-        <v>0.0218</v>
+        <v>0.0248</v>
       </c>
       <c r="G44">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H44">
-        <v>73.23999999999999</v>
+        <v>74.27</v>
       </c>
       <c r="I44">
-        <v>211000</v>
+        <v>228700</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1910,10 +1910,10 @@
         <v>0.0256</v>
       </c>
       <c r="G45">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H45">
-        <v>75.62</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I45">
         <v>5400</v>
@@ -1933,19 +1933,19 @@
         <v>78</v>
       </c>
       <c r="E46">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="F46">
-        <v>0.0267</v>
+        <v>0.0304</v>
       </c>
       <c r="G46">
         <v>-0.03</v>
       </c>
       <c r="H46">
-        <v>77.86</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="I46">
-        <v>60000</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1961,17 +1961,20 @@
       <c r="D47" t="s">
         <v>78</v>
       </c>
+      <c r="E47">
+        <v>1.04</v>
+      </c>
       <c r="F47">
-        <v>0.0327</v>
+        <v>0.034</v>
       </c>
       <c r="G47">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="H47">
-        <v>79.95999999999999</v>
+        <v>80.84</v>
       </c>
       <c r="I47">
-        <v>6900</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1988,19 +1991,19 @@
         <v>78</v>
       </c>
       <c r="E48">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="F48">
-        <v>0.0328</v>
+        <v>0.0357</v>
       </c>
       <c r="G48">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H48">
-        <v>81.93000000000001</v>
+        <v>82.75</v>
       </c>
       <c r="I48">
-        <v>315700</v>
+        <v>324700</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2017,19 +2020,19 @@
         <v>78</v>
       </c>
       <c r="E49">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F49">
-        <v>0.0386</v>
+        <v>0.0402</v>
       </c>
       <c r="G49">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H49">
-        <v>83.75</v>
+        <v>84.52</v>
       </c>
       <c r="I49">
-        <v>500300</v>
+        <v>502000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2046,19 +2049,19 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="F50">
-        <v>0.0399</v>
+        <v>0.0415</v>
       </c>
       <c r="G50">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="H50">
-        <v>85.43000000000001</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="I50">
-        <v>1900</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2075,19 +2078,19 @@
         <v>78</v>
       </c>
       <c r="E51">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="F51">
-        <v>0.0459</v>
+        <v>0.0453</v>
       </c>
       <c r="G51">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H51">
-        <v>86.98999999999999</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="I51">
-        <v>93600</v>
+        <v>102600</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2104,19 +2107,19 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="F52">
-        <v>0.0465</v>
+        <v>0.0522</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H52">
-        <v>88.41</v>
+        <v>89.02</v>
       </c>
       <c r="I52">
-        <v>756100</v>
+        <v>784900</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2133,19 +2136,19 @@
         <v>78</v>
       </c>
       <c r="E53">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F53">
-        <v>0.054</v>
+        <v>0.0533</v>
       </c>
       <c r="G53">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H53">
-        <v>89.70999999999999</v>
+        <v>90.27</v>
       </c>
       <c r="I53">
-        <v>19000</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2168,10 +2171,10 @@
         <v>0.0554</v>
       </c>
       <c r="G54">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H54">
-        <v>90.89</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I54">
         <v>2400</v>
@@ -2197,10 +2200,10 @@
         <v>0.0605</v>
       </c>
       <c r="G55">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H55">
-        <v>91.95999999999999</v>
+        <v>92.42</v>
       </c>
       <c r="I55">
         <v>5800</v>
@@ -2226,10 +2229,10 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="G56">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H56">
-        <v>92.92</v>
+        <v>93.34</v>
       </c>
       <c r="I56">
         <v>9200</v>
@@ -2255,10 +2258,10 @@
         <v>0.0668</v>
       </c>
       <c r="G57">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H57">
-        <v>93.79000000000001</v>
+        <v>94.17</v>
       </c>
       <c r="I57">
         <v>25100</v>
@@ -2284,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H58">
-        <v>95.26000000000001</v>
+        <v>95.56</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2313,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H59">
-        <v>96.42</v>
+        <v>96.66</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2342,10 +2345,10 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="G60">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
-        <v>96.90000000000001</v>
+        <v>97.12</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2371,10 +2374,10 @@
         <v>0.1043</v>
       </c>
       <c r="G61">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H61">
-        <v>97.7</v>
+        <v>97.86</v>
       </c>
       <c r="I61">
         <v>2000</v>
@@ -2400,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H62">
-        <v>98.02</v>
+        <v>98.17</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2429,10 +2432,10 @@
         <v>0.1223</v>
       </c>
       <c r="G63">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H63">
-        <v>98.55</v>
+        <v>98.66</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2458,10 +2461,10 @@
         <v>0.1467</v>
       </c>
       <c r="G64">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H64">
-        <v>99.36</v>
+        <v>99.42</v>
       </c>
       <c r="I64">
         <v>300</v>
@@ -2487,10 +2490,10 @@
         <v>0.1581</v>
       </c>
       <c r="G65">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H65">
-        <v>99.55</v>
+        <v>99.59</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2516,10 +2519,10 @@
         <v>0.1685</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H66">
-        <v>99.68000000000001</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="I66">
         <v>27700</v>
@@ -2545,10 +2548,10 @@
         <v>0.1801</v>
       </c>
       <c r="G67">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H67">
-        <v>99.78</v>
+        <v>99.8</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2574,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H68">
-        <v>99.84999999999999</v>
+        <v>99.86</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2603,10 +2606,10 @@
         <v>0.3189</v>
       </c>
       <c r="G69">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="H69">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="I69">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -570,10 +570,10 @@
         <v>0.1063</v>
       </c>
       <c r="G2">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H2">
-        <v>19.44</v>
+        <v>19.91</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>-0.36</v>
       </c>
       <c r="H3">
-        <v>23.27</v>
+        <v>23.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0.0255</v>
       </c>
       <c r="G4">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="H4">
-        <v>25.46</v>
+        <v>26.02</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>-0.33</v>
       </c>
       <c r="H5">
-        <v>27.28</v>
+        <v>27.87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>-0.29</v>
       </c>
       <c r="H6">
-        <v>32.63</v>
+        <v>33.29</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>-0.26</v>
       </c>
       <c r="H7">
-        <v>36.78</v>
+        <v>37.49</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>-0.25</v>
       </c>
       <c r="H8">
-        <v>37.82</v>
+        <v>38.53</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>-0.24</v>
       </c>
       <c r="H9">
-        <v>38.85</v>
+        <v>39.58</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>-0.23</v>
       </c>
       <c r="H10">
-        <v>39.88</v>
+        <v>40.62</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0.029</v>
       </c>
       <c r="G11">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H11">
-        <v>40.91</v>
+        <v>41.65</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>-0.22</v>
       </c>
       <c r="H12">
-        <v>41.93</v>
+        <v>42.68</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>-0.21</v>
       </c>
       <c r="H13">
-        <v>42.95</v>
+        <v>43.71</v>
       </c>
       <c r="I13">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -921,7 +921,7 @@
         <v>-0.19</v>
       </c>
       <c r="H14">
-        <v>44.97</v>
+        <v>45.74</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0.0315</v>
       </c>
       <c r="G15">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H15">
-        <v>45.97</v>
+        <v>46.75</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>-0.18</v>
       </c>
       <c r="H16">
-        <v>46.96</v>
+        <v>47.74</v>
       </c>
       <c r="I16">
-        <v>12100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1008,7 +1008,7 @@
         <v>-0.17</v>
       </c>
       <c r="H17">
-        <v>47.95</v>
+        <v>48.73</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>-0.16</v>
       </c>
       <c r="H18">
-        <v>48.92</v>
+        <v>49.71</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>-0.13</v>
       </c>
       <c r="H19">
-        <v>52.74</v>
+        <v>53.54</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1092,10 +1092,10 @@
         <v>0.0535</v>
       </c>
       <c r="G20">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H20">
-        <v>55.49</v>
+        <v>56.3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>-0.1</v>
       </c>
       <c r="H21">
-        <v>56.39</v>
+        <v>57.2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>-0.09</v>
       </c>
       <c r="H22">
-        <v>57.28</v>
+        <v>58.08</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>-0.08</v>
       </c>
       <c r="H23">
-        <v>58.15</v>
+        <v>58.96</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H24">
-        <v>59.02</v>
+        <v>59.82</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0.0446</v>
       </c>
       <c r="G25">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H25">
-        <v>59.87</v>
+        <v>60.67</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>-0.06</v>
       </c>
       <c r="H26">
-        <v>60.71</v>
+        <v>61.51</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>-0.05</v>
       </c>
       <c r="H27">
-        <v>61.53</v>
+        <v>62.33</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>47</v>
       </c>
       <c r="E28">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="F28">
-        <v>0.0439</v>
+        <v>0.0425</v>
       </c>
       <c r="G28">
         <v>-0.04</v>
       </c>
       <c r="H28">
-        <v>62.35</v>
+        <v>63.15</v>
       </c>
       <c r="I28">
-        <v>259300</v>
+        <v>55900</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1356,7 +1356,7 @@
         <v>-0.03</v>
       </c>
       <c r="H29">
-        <v>63.15</v>
+        <v>63.95</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>-0.02</v>
       </c>
       <c r="H30">
-        <v>64.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="E31">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="F31">
-        <v>0.056</v>
+        <v>0.0567</v>
       </c>
       <c r="G31">
         <v>-0.01</v>
       </c>
       <c r="H31">
-        <v>65.48999999999999</v>
+        <v>66.27</v>
       </c>
       <c r="I31">
-        <v>428700</v>
+        <v>75100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1440,10 +1440,10 @@
         <v>0.0886</v>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H32">
-        <v>67.70999999999999</v>
+        <v>68.48</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0.05</v>
       </c>
       <c r="H33">
-        <v>70.5</v>
+        <v>71.25</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>0.3347</v>
       </c>
       <c r="G34">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H34">
-        <v>71.17</v>
+        <v>71.91</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H35">
-        <v>72.47</v>
+        <v>73.2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0.2642</v>
       </c>
       <c r="G36">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H36">
-        <v>82.53</v>
+        <v>83.12</v>
       </c>
       <c r="I36">
         <v>0</v>

--- a/Robo_PUT_ITUB4.xlsx
+++ b/Robo_PUT_ITUB4.xlsx
@@ -570,10 +570,10 @@
         <v>0.1063</v>
       </c>
       <c r="G2">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="H2">
-        <v>19.91</v>
+        <v>18.7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="H3">
-        <v>23.8</v>
+        <v>22.46</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0.0255</v>
       </c>
       <c r="G4">
-        <v>-0.34</v>
+        <v>-0.36</v>
       </c>
       <c r="H4">
-        <v>26.02</v>
+        <v>24.61</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H5">
-        <v>27.87</v>
+        <v>26.41</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0.0226</v>
       </c>
       <c r="G6">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="H6">
-        <v>33.29</v>
+        <v>31.7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0.0649</v>
       </c>
       <c r="G7">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H7">
-        <v>37.49</v>
+        <v>35.83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0.0133</v>
       </c>
       <c r="G8">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H8">
-        <v>38.53</v>
+        <v>36.86</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0.0064</v>
       </c>
       <c r="G9">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H9">
-        <v>39.58</v>
+        <v>37.89</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0.0209</v>
       </c>
       <c r="G10">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="H10">
-        <v>40.62</v>
+        <v>38.92</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0.029</v>
       </c>
       <c r="G11">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="H11">
-        <v>41.65</v>
+        <v>39.94</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>0.0205</v>
       </c>
       <c r="G12">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H12">
-        <v>42.68</v>
+        <v>40.97</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -883,19 +883,19 @@
         <v>47</v>
       </c>
       <c r="E13">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F13">
-        <v>0.008500000000000001</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="G13">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H13">
-        <v>43.71</v>
+        <v>41.98</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -918,10 +918,10 @@
         <v>0.0119</v>
       </c>
       <c r="G14">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H14">
-        <v>45.74</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0.0315</v>
       </c>
       <c r="G15">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="H15">
-        <v>46.75</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>0.0137</v>
       </c>
       <c r="G16">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H16">
-        <v>47.74</v>
+        <v>45.99</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>47</v>
       </c>
       <c r="E17">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F17">
-        <v>0.0135</v>
+        <v>0.0143</v>
       </c>
       <c r="G17">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H17">
-        <v>48.73</v>
+        <v>46.98</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1034,10 +1034,10 @@
         <v>0.0153</v>
       </c>
       <c r="G18">
-        <v>-0.16</v>
+        <v>-0.18</v>
       </c>
       <c r="H18">
-        <v>49.71</v>
+        <v>47.96</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0.0206</v>
       </c>
       <c r="G19">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H19">
-        <v>53.54</v>
+        <v>51.79</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0.0535</v>
       </c>
       <c r="G20">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="H20">
-        <v>56.3</v>
+        <v>54.56</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>0.8</v>
@@ -1121,10 +1121,10 @@
         <v>0.0284</v>
       </c>
       <c r="G21">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H21">
-        <v>57.2</v>
+        <v>55.46</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>1.06</v>
@@ -1150,10 +1150,10 @@
         <v>0.0374</v>
       </c>
       <c r="G22">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H22">
-        <v>58.08</v>
+        <v>56.36</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>0.0318</v>
       </c>
       <c r="G23">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="H23">
-        <v>58.96</v>
+        <v>57.24</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>0.0398</v>
       </c>
       <c r="G24">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="H24">
-        <v>59.82</v>
+        <v>58.11</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0.0446</v>
       </c>
       <c r="G25">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="H25">
-        <v>60.67</v>
+        <v>58.97</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0.046</v>
       </c>
       <c r="G26">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H26">
-        <v>61.51</v>
+        <v>59.81</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>0.0483</v>
       </c>
       <c r="G27">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H27">
-        <v>62.33</v>
+        <v>60.65</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>47</v>
       </c>
       <c r="E28">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="F28">
-        <v>0.0425</v>
+        <v>0.0395</v>
       </c>
       <c r="G28">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="H28">
-        <v>63.15</v>
+        <v>61.47</v>
       </c>
       <c r="I28">
-        <v>55900</v>
+        <v>72700</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1353,10 +1353,10 @@
         <v>0.0335</v>
       </c>
       <c r="G29">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H29">
-        <v>63.95</v>
+        <v>62.29</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H30">
-        <v>65.51000000000001</v>
+        <v>63.87</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="E31">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="F31">
-        <v>0.0567</v>
+        <v>0.0505</v>
       </c>
       <c r="G31">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="H31">
-        <v>66.27</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I31">
-        <v>75100</v>
+        <v>98200</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1440,10 +1440,10 @@
         <v>0.0886</v>
       </c>
       <c r="G32">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="H32">
-        <v>68.48</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0.2805</v>
       </c>
       <c r="G33">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H33">
-        <v>71.25</v>
+        <v>69.73</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1492,19 +1492,19 @@
         <v>47</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>2.65</v>
       </c>
       <c r="F34">
-        <v>0.3347</v>
+        <v>0.0806</v>
       </c>
       <c r="G34">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="H34">
-        <v>71.91</v>
+        <v>70.41</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1527,10 +1527,10 @@
         <v>0.0659</v>
       </c>
       <c r="G35">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H35">
-        <v>73.2</v>
+        <v>71.73</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0.2642</v>
       </c>
       <c r="G36">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="H36">
-        <v>83.12</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="I36">
         <v>0</v>
